--- a/Shablon/34401A_gost.xlsx
+++ b/Shablon/34401A_gost.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист2!$A$1:$I$210</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="214">
   <si>
     <t>Предел измерений</t>
   </si>
@@ -86,21 +86,6 @@
   </si>
   <si>
     <t>5 кГц</t>
-  </si>
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование и тип СИ: </t>
@@ -730,11 +715,14 @@
   <si>
     <t>Установленное значение</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1140,78 +1128,78 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A142" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E192" sqref="E192:F192"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1536,93 +1524,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="A3" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="A7" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -1635,29 +1615,29 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="A9" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="20"/>
       <c r="G9" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
+      <c r="A10" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1665,11 +1645,11 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1677,13 +1657,13 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+      <c r="A12" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1691,13 +1671,13 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1705,13 +1685,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
+      <c r="A14" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1719,13 +1699,13 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
+      <c r="A15" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1746,107 +1726,107 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="67"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68" t="s">
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="68"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="I20" s="67"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="84" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="68"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="84" t="s">
+      <c r="I21" s="67"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="68" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="68"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="I22" s="67"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="68"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="68"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
@@ -1860,7 +1840,7 @@
     </row>
     <row r="25" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1881,17 +1861,17 @@
     </row>
     <row r="27" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1903,7 +1883,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -1915,31 +1895,31 @@
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75" t="s">
+      <c r="B33" s="69"/>
+      <c r="C33" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75" t="s">
+      <c r="F33" s="69"/>
+      <c r="G33" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="75"/>
+      <c r="H33" s="69"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="23" t="s">
         <v>18</v>
       </c>
@@ -1949,10 +1929,10 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="75">
+      <c r="A35" s="69">
         <v>100</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="81" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="24">
@@ -1961,10 +1941,10 @@
       <c r="D35" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="79"/>
+      <c r="E35" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="70"/>
       <c r="G35" s="26">
         <v>9.9960000000000004</v>
       </c>
@@ -1973,18 +1953,18 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="74"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="24">
         <v>50</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="79"/>
+      <c r="E36" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="70"/>
       <c r="G36" s="26">
         <v>49.994</v>
       </c>
@@ -1993,18 +1973,18 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="74"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="24">
         <v>100</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="79"/>
+      <c r="E37" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="70"/>
       <c r="G37" s="58">
         <v>99.991500000000002</v>
       </c>
@@ -2013,18 +1993,18 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="24">
         <v>-100</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="79"/>
+      <c r="E38" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="70"/>
       <c r="G38" s="58">
         <v>-100.0085</v>
       </c>
@@ -2033,10 +2013,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="75">
+      <c r="A39" s="69">
         <v>1</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="24">
@@ -2045,10 +2025,10 @@
       <c r="D39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="79"/>
+      <c r="E39" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="70"/>
       <c r="G39" s="26">
         <v>9.9988999999999995E-2</v>
       </c>
@@ -2057,18 +2037,18 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="24">
         <v>0.5</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="79"/>
+      <c r="E40" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="70"/>
       <c r="G40" s="26">
         <v>0.499973</v>
       </c>
@@ -2077,18 +2057,18 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="74"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="24">
         <v>1</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="79"/>
+      <c r="E41" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="70"/>
       <c r="G41" s="58">
         <v>0.99995299999999998</v>
       </c>
@@ -2097,18 +2077,18 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="74"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="24">
         <v>-1</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="79"/>
+      <c r="E42" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="70"/>
       <c r="G42" s="58">
         <v>-1.0000469999999999</v>
       </c>
@@ -2117,10 +2097,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="74">
+      <c r="A43" s="81">
         <v>10</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="24">
@@ -2129,10 +2109,10 @@
       <c r="D43" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="79"/>
+      <c r="E43" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="70"/>
       <c r="G43" s="26">
         <v>0.999915</v>
       </c>
@@ -2141,18 +2121,18 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="24">
         <v>5</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="79"/>
+      <c r="E44" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="70"/>
       <c r="G44" s="26">
         <v>4.9997749999999996</v>
       </c>
@@ -2161,18 +2141,18 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="24">
         <v>10</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="79"/>
+      <c r="E45" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="70"/>
       <c r="G45" s="58">
         <v>9.9995999999999992</v>
       </c>
@@ -2181,18 +2161,18 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="81"/>
       <c r="C46" s="24">
         <v>-10</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="79"/>
+      <c r="E46" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="70"/>
       <c r="G46" s="58">
         <v>-10.000400000000001</v>
       </c>
@@ -2201,10 +2181,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="74">
+      <c r="A47" s="81">
         <v>100</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="24">
@@ -2213,10 +2193,10 @@
       <c r="D47" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="79"/>
+      <c r="E47" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="70"/>
       <c r="G47" s="26">
         <v>9.9995499999999993</v>
       </c>
@@ -2225,18 +2205,18 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="81"/>
       <c r="C48" s="24">
         <v>50</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="79"/>
+      <c r="E48" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="70"/>
       <c r="G48" s="26">
         <v>49.997149999999998</v>
       </c>
@@ -2245,18 +2225,18 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="24">
         <v>100</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="F49" s="79"/>
+      <c r="E49" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="70"/>
       <c r="G49" s="58">
         <v>99.994900000000001</v>
       </c>
@@ -2265,18 +2245,18 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="81"/>
       <c r="C50" s="24">
         <v>-100</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="79"/>
+      <c r="E50" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="70"/>
       <c r="G50" s="58">
         <v>-100.0051</v>
       </c>
@@ -2285,10 +2265,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="75">
+      <c r="A51" s="69">
         <v>1000</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="24">
@@ -2297,10 +2277,10 @@
       <c r="D51" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="79"/>
+      <c r="E51" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="70"/>
       <c r="G51" s="26">
         <v>99.985500000000002</v>
       </c>
@@ -2309,18 +2289,18 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="74"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="81"/>
       <c r="C52" s="24">
         <v>500</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="79"/>
+      <c r="E52" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="70"/>
       <c r="G52" s="26">
         <v>499.96749999999997</v>
       </c>
@@ -2329,18 +2309,18 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="74"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="81"/>
       <c r="C53" s="24">
         <v>1000</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="79"/>
+      <c r="E53" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="70"/>
       <c r="G53" s="58">
         <v>999.94500000000005</v>
       </c>
@@ -2349,18 +2329,18 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="74"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="81"/>
       <c r="C54" s="24">
         <v>-1000</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="79"/>
+      <c r="E54" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="70"/>
       <c r="G54" s="58">
         <v>-1000.0549999999999</v>
       </c>
@@ -2370,39 +2350,39 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75" t="s">
+      <c r="B56" s="69"/>
+      <c r="C56" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="80" t="s">
+      <c r="G56" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="80"/>
+      <c r="H56" s="84"/>
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
       <c r="G57" s="40" t="s">
         <v>18</v>
       </c>
@@ -2412,23 +2392,23 @@
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="75">
+      <c r="A58" s="69">
         <v>100</v>
       </c>
-      <c r="B58" s="75" t="s">
+      <c r="B58" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="81">
+      <c r="C58" s="82">
         <v>10</v>
       </c>
-      <c r="D58" s="74" t="s">
+      <c r="D58" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G58" s="26">
         <v>9.9250000000000007</v>
@@ -2439,15 +2419,15 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="74"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="81"/>
       <c r="E59" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="64" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G59" s="26">
         <v>9.9540000000000006</v>
@@ -2458,15 +2438,15 @@
       <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="74"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="64" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G60" s="26">
         <v>9.9380000000000006</v>
@@ -2477,15 +2457,15 @@
       <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="74"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F61" s="64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G61" s="26">
         <v>9.86</v>
@@ -2496,19 +2476,19 @@
       <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="75"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="81">
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="82">
         <v>50</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G62" s="26">
         <v>49.784999999999997</v>
@@ -2519,15 +2499,15 @@
       <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="75"/>
-      <c r="B63" s="75"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="74"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="64" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G63" s="26">
         <v>49.93</v>
@@ -2538,15 +2518,15 @@
       <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="74"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="81"/>
       <c r="E64" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="64" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G64" s="26">
         <v>49.89</v>
@@ -2557,15 +2537,15 @@
       <c r="I64" s="28"/>
     </row>
     <row r="65" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="74"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F65" s="64" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G65" s="26">
         <v>49.62</v>
@@ -2576,15 +2556,15 @@
       <c r="I65" s="28"/>
     </row>
     <row r="66" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="75"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="74"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="81"/>
       <c r="E66" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="64" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G66" s="41">
         <v>47.5</v>
@@ -2595,19 +2575,19 @@
       <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="76">
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="83">
         <v>100</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D67" s="81" t="s">
         <v>2</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G67" s="42">
         <v>99.61</v>
@@ -2618,15 +2598,15 @@
       <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="75"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="74"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="81"/>
       <c r="E68" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="64" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G68" s="42">
         <v>99.9</v>
@@ -2637,15 +2617,15 @@
       <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="75"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="76"/>
-      <c r="D69" s="74"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="81"/>
       <c r="E69" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="64" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G69" s="42">
         <v>99.83</v>
@@ -2656,15 +2636,15 @@
       <c r="I69" s="29"/>
     </row>
     <row r="70" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="75"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="74"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="64" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G70" s="42">
         <v>99.32</v>
@@ -2675,15 +2655,15 @@
       <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="75"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="74"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="81"/>
       <c r="E71" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="64" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G71" s="42">
         <v>95.5</v>
@@ -2694,23 +2674,23 @@
       <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="71">
+      <c r="A72" s="85">
         <v>1</v>
       </c>
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="86">
         <v>100</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G72" s="43">
         <v>99.35</v>
@@ -2721,15 +2701,15 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="73"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="87"/>
       <c r="E73" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="64" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G73" s="43">
         <v>99.64</v>
@@ -2740,15 +2720,15 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="73"/>
+      <c r="A74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="87"/>
       <c r="E74" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G74" s="43">
         <v>99.38</v>
@@ -2759,15 +2739,15 @@
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="73"/>
+      <c r="A75" s="85"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="87"/>
       <c r="E75" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F75" s="64" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G75" s="45">
         <v>98.6</v>
@@ -2778,15 +2758,15 @@
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="73"/>
+      <c r="A76" s="85"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="87"/>
       <c r="E76" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F76" s="64" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G76" s="45">
         <v>91</v>
@@ -2797,19 +2777,19 @@
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="72">
+      <c r="A77" s="85"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="86">
         <v>500</v>
       </c>
-      <c r="D77" s="73" t="s">
+      <c r="D77" s="87" t="s">
         <v>2</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F77" s="64" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G77" s="43">
         <v>497.95</v>
@@ -2820,15 +2800,15 @@
       <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="72"/>
-      <c r="D78" s="73"/>
+      <c r="A78" s="85"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="87"/>
       <c r="E78" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G78" s="45">
         <v>499.4</v>
@@ -2839,15 +2819,15 @@
       <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="73"/>
+      <c r="A79" s="85"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="87"/>
       <c r="E79" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G79" s="45">
         <v>498.9</v>
@@ -2858,15 +2838,15 @@
       <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="73"/>
+      <c r="A80" s="85"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="87"/>
       <c r="E80" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F80" s="64" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G80" s="45">
         <v>496.2</v>
@@ -2877,15 +2857,15 @@
       <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="73"/>
+      <c r="A81" s="85"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="87"/>
       <c r="E81" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G81" s="45">
         <v>475</v>
@@ -2896,19 +2876,19 @@
       <c r="I81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="72">
+      <c r="A82" s="85"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="86">
         <v>1</v>
       </c>
-      <c r="D82" s="73" t="s">
+      <c r="D82" s="87" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F82" s="64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G82" s="43">
         <v>0.99619999999999997</v>
@@ -2919,15 +2899,15 @@
       <c r="I82" s="30"/>
     </row>
     <row r="83" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
+      <c r="A83" s="85"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
       <c r="E83" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="64" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G83" s="43">
         <v>0.99909999999999999</v>
@@ -2938,15 +2918,15 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="72"/>
-      <c r="D84" s="73"/>
+      <c r="A84" s="85"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="87"/>
       <c r="E84" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G84" s="43">
         <v>0.99829999999999997</v>
@@ -2957,15 +2937,15 @@
       <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="73"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="87"/>
       <c r="E85" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="64" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G85" s="43">
         <v>0.99319999999999997</v>
@@ -2976,15 +2956,15 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="73"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="87"/>
       <c r="E86" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F86" s="64" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G86" s="43">
         <v>0.95499999999999996</v>
@@ -2995,23 +2975,23 @@
       <c r="I86" s="30"/>
     </row>
     <row r="87" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="73">
+      <c r="A87" s="87">
         <v>10</v>
       </c>
-      <c r="B87" s="71" t="s">
+      <c r="B87" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="76">
+      <c r="C87" s="83">
         <v>1</v>
       </c>
-      <c r="D87" s="74" t="s">
+      <c r="D87" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F87" s="64" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G87" s="47">
         <v>0.99350000000000005</v>
@@ -3022,15 +3002,15 @@
       <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="73"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="74"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="81"/>
       <c r="E88" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G88" s="47">
         <v>0.99639999999999995</v>
@@ -3041,15 +3021,15 @@
       <c r="I88" s="30"/>
     </row>
     <row r="89" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="73"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="76"/>
-      <c r="D89" s="74"/>
+      <c r="A89" s="87"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="81"/>
       <c r="E89" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G89" s="47">
         <v>0.99380000000000002</v>
@@ -3060,15 +3040,15 @@
       <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="73"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="74"/>
+      <c r="A90" s="87"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="81"/>
       <c r="E90" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F90" s="64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G90" s="47">
         <v>0.98599999999999999</v>
@@ -3079,19 +3059,19 @@
       <c r="I90" s="14"/>
     </row>
     <row r="91" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="73"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="76">
+      <c r="A91" s="87"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="83">
         <v>5</v>
       </c>
-      <c r="D91" s="74" t="s">
+      <c r="D91" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G91" s="47">
         <v>4.9794999999999998</v>
@@ -3102,15 +3082,15 @@
       <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="73"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="74"/>
+      <c r="A92" s="87"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="81"/>
       <c r="E92" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G92" s="47">
         <v>4.9939999999999998</v>
@@ -3121,15 +3101,15 @@
       <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="73"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="74"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="81"/>
       <c r="E93" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="64" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G93" s="47">
         <v>4.9889999999999999</v>
@@ -3140,15 +3120,15 @@
       <c r="I93" s="14"/>
     </row>
     <row r="94" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="73"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="74"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="81"/>
       <c r="E94" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="64" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G94" s="47">
         <v>4.9619999999999997</v>
@@ -3159,19 +3139,19 @@
       <c r="I94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="73"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="76">
+      <c r="A95" s="87"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="83">
         <v>10</v>
       </c>
-      <c r="D95" s="74" t="s">
+      <c r="D95" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F95" s="64" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G95" s="47">
         <v>9.9619999999999997</v>
@@ -3182,15 +3162,15 @@
       <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="73"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="74"/>
+      <c r="A96" s="87"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="81"/>
       <c r="E96" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="64" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G96" s="47">
         <v>9.9909999999999997</v>
@@ -3201,15 +3181,15 @@
       <c r="I96" s="14"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="73"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="74"/>
+      <c r="A97" s="87"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="81"/>
       <c r="E97" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="64" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G97" s="47">
         <v>9.9830000000000005</v>
@@ -3220,15 +3200,15 @@
       <c r="I97" s="14"/>
     </row>
     <row r="98" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="73"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="74"/>
+      <c r="A98" s="87"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="81"/>
       <c r="E98" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F98" s="64" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G98" s="47">
         <v>9.9320000000000004</v>
@@ -3239,23 +3219,23 @@
       <c r="I98" s="14"/>
     </row>
     <row r="99" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="74">
+      <c r="A99" s="81">
         <v>100</v>
       </c>
-      <c r="B99" s="75" t="s">
+      <c r="B99" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="76">
+      <c r="C99" s="83">
         <v>10</v>
       </c>
-      <c r="D99" s="74" t="s">
+      <c r="D99" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F99" s="64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G99" s="47">
         <v>9.9350000000000005</v>
@@ -3266,15 +3246,15 @@
       <c r="I99" s="14"/>
     </row>
     <row r="100" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="74"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="74"/>
+      <c r="A100" s="81"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="81"/>
       <c r="E100" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="64" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G100" s="47">
         <v>9.9640000000000004</v>
@@ -3285,15 +3265,15 @@
       <c r="I100" s="14"/>
     </row>
     <row r="101" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="74"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="74"/>
+      <c r="A101" s="81"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="81"/>
       <c r="E101" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F101" s="64" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G101" s="47">
         <v>9.9380000000000006</v>
@@ -3304,15 +3284,15 @@
       <c r="I101" s="14"/>
     </row>
     <row r="102" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="74"/>
-      <c r="B102" s="75"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="74"/>
+      <c r="A102" s="81"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="81"/>
       <c r="E102" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="64" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G102" s="47">
         <v>9.86</v>
@@ -3323,19 +3303,19 @@
       <c r="I102" s="14"/>
     </row>
     <row r="103" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="74"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="76">
+      <c r="A103" s="81"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="83">
         <v>30</v>
       </c>
-      <c r="D103" s="74" t="s">
+      <c r="D103" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F103" s="64" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G103" s="47">
         <v>29.795000000000002</v>
@@ -3346,15 +3326,15 @@
       <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="74"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="74"/>
+      <c r="A104" s="81"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="81"/>
       <c r="E104" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="64" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G104" s="47">
         <v>29.94</v>
@@ -3365,15 +3345,15 @@
       <c r="I104" s="14"/>
     </row>
     <row r="105" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="74"/>
-      <c r="B105" s="75"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="74"/>
+      <c r="A105" s="81"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="81"/>
       <c r="E105" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F105" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G105" s="47">
         <v>29.89</v>
@@ -3384,15 +3364,15 @@
       <c r="I105" s="14"/>
     </row>
     <row r="106" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="74"/>
-      <c r="B106" s="75"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="74"/>
+      <c r="A106" s="81"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="81"/>
       <c r="E106" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F106" s="64" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G106" s="47">
         <v>29.62</v>
@@ -3403,19 +3383,19 @@
       <c r="I106" s="14"/>
     </row>
     <row r="107" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="74"/>
-      <c r="B107" s="75"/>
-      <c r="C107" s="76">
+      <c r="A107" s="81"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="83">
         <v>100</v>
       </c>
-      <c r="D107" s="74" t="s">
+      <c r="D107" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F107" s="64" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G107" s="47">
         <v>99.62</v>
@@ -3426,15 +3406,15 @@
       <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="74"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="74"/>
+      <c r="A108" s="81"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="81"/>
       <c r="E108" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="64" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G108" s="43">
         <v>99.91</v>
@@ -3445,15 +3425,15 @@
       <c r="I108" s="14"/>
     </row>
     <row r="109" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="74"/>
-      <c r="B109" s="75"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="74"/>
+      <c r="A109" s="81"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="81"/>
       <c r="E109" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F109" s="64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G109" s="43">
         <v>99.83</v>
@@ -3464,15 +3444,15 @@
       <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="74"/>
-      <c r="B110" s="75"/>
-      <c r="C110" s="76"/>
-      <c r="D110" s="74"/>
+      <c r="A110" s="81"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="81"/>
       <c r="E110" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F110" s="64" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G110" s="43">
         <v>99.32</v>
@@ -3483,23 +3463,23 @@
       <c r="I110" s="14"/>
     </row>
     <row r="111" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="75">
+      <c r="A111" s="69">
         <v>750</v>
       </c>
-      <c r="B111" s="75" t="s">
+      <c r="B111" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="76">
+      <c r="C111" s="83">
         <v>100</v>
       </c>
-      <c r="D111" s="74" t="s">
+      <c r="D111" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F111" s="64" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G111" s="47">
         <v>99.424999999999997</v>
@@ -3510,15 +3490,15 @@
       <c r="I111" s="14"/>
     </row>
     <row r="112" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="75"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="74"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="81"/>
       <c r="E112" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F112" s="64" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G112" s="43">
         <v>99.715000000000003</v>
@@ -3529,15 +3509,15 @@
       <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="75"/>
-      <c r="B113" s="75"/>
-      <c r="C113" s="76"/>
-      <c r="D113" s="74"/>
+      <c r="A113" s="69"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="81"/>
       <c r="E113" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="64" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G113" s="43">
         <v>99.504999999999995</v>
@@ -3548,15 +3528,15 @@
       <c r="I113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="74"/>
-      <c r="B114" s="75"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="74"/>
+      <c r="A114" s="81"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="81"/>
       <c r="E114" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="64" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G114" s="45">
         <v>98.8</v>
@@ -3567,19 +3547,19 @@
       <c r="I114" s="14"/>
     </row>
     <row r="115" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="74"/>
-      <c r="B115" s="75"/>
-      <c r="C115" s="76">
+      <c r="A115" s="81"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="83">
         <v>500</v>
       </c>
-      <c r="D115" s="74" t="s">
+      <c r="D115" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F115" s="64" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G115" s="47">
         <v>498.02499999999998</v>
@@ -3590,15 +3570,15 @@
       <c r="I115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="74"/>
-      <c r="B116" s="75"/>
-      <c r="C116" s="76"/>
-      <c r="D116" s="74"/>
+      <c r="A116" s="81"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="81"/>
       <c r="E116" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="64" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G116" s="43">
         <v>499.47500000000002</v>
@@ -3609,15 +3589,15 @@
       <c r="I116" s="14"/>
     </row>
     <row r="117" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="74"/>
-      <c r="B117" s="75"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="74"/>
+      <c r="A117" s="81"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="81"/>
       <c r="E117" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F117" s="64" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G117" s="43">
         <v>499.02499999999998</v>
@@ -3628,15 +3608,15 @@
       <c r="I117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="74"/>
-      <c r="B118" s="75"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="74"/>
+      <c r="A118" s="81"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="81"/>
       <c r="E118" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F118" s="64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G118" s="42">
         <v>496.4</v>
@@ -3647,19 +3627,19 @@
       <c r="I118" s="14"/>
     </row>
     <row r="119" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="74"/>
-      <c r="B119" s="75"/>
-      <c r="C119" s="76">
+      <c r="A119" s="81"/>
+      <c r="B119" s="69"/>
+      <c r="C119" s="83">
         <v>750</v>
       </c>
-      <c r="D119" s="74" t="s">
+      <c r="D119" s="81" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F119" s="64" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G119" s="47">
         <v>747.15</v>
@@ -3670,15 +3650,15 @@
       <c r="I119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="74"/>
-      <c r="B120" s="75"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="74"/>
+      <c r="A120" s="81"/>
+      <c r="B120" s="69"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="81"/>
       <c r="E120" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="64" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G120" s="43">
         <v>749.32500000000005</v>
@@ -3689,15 +3669,15 @@
       <c r="I120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="74"/>
-      <c r="B121" s="75"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="74"/>
+      <c r="A121" s="81"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="81"/>
       <c r="E121" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F121" s="64" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G121" s="43">
         <v>748.72500000000002</v>
@@ -3708,15 +3688,15 @@
       <c r="I121" s="14"/>
     </row>
     <row r="122" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="74"/>
-      <c r="B122" s="75"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="74"/>
+      <c r="A122" s="81"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="81"/>
       <c r="E122" s="23" t="s">
         <v>5</v>
       </c>
       <c r="F122" s="64" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G122" s="42">
         <v>744.9</v>
@@ -3739,7 +3719,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
@@ -3749,31 +3729,31 @@
       <c r="H124" s="27"/>
     </row>
     <row r="125" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="75" t="s">
+      <c r="A125" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="75"/>
-      <c r="C125" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D125" s="75"/>
-      <c r="E125" s="75" t="s">
+      <c r="B125" s="69"/>
+      <c r="C125" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D125" s="69"/>
+      <c r="E125" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F125" s="75"/>
-      <c r="G125" s="78" t="s">
+      <c r="F125" s="69"/>
+      <c r="G125" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="78"/>
+      <c r="H125" s="77"/>
       <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="75"/>
-      <c r="B126" s="75"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="75"/>
-      <c r="E126" s="75"/>
-      <c r="F126" s="75"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="69"/>
+      <c r="C126" s="69"/>
+      <c r="D126" s="69"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
       <c r="G126" s="40" t="s">
         <v>18</v>
       </c>
@@ -3783,10 +3763,10 @@
       <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="75">
+      <c r="A127" s="69">
         <v>10</v>
       </c>
-      <c r="B127" s="74" t="s">
+      <c r="B127" s="81" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="24">
@@ -3795,10 +3775,10 @@
       <c r="D127" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="F127" s="77"/>
+      <c r="E127" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F127" s="78"/>
       <c r="G127" s="47">
         <v>0.99750000000000005</v>
       </c>
@@ -3808,18 +3788,18 @@
       <c r="I127" s="14"/>
     </row>
     <row r="128" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="75"/>
-      <c r="B128" s="74"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="81"/>
       <c r="C128" s="24">
         <v>5</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="F128" s="77"/>
+      <c r="E128" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F128" s="78"/>
       <c r="G128" s="47">
         <v>4.9954999999999998</v>
       </c>
@@ -3829,18 +3809,18 @@
       <c r="I128" s="14"/>
     </row>
     <row r="129" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="75"/>
-      <c r="B129" s="74"/>
+      <c r="A129" s="69"/>
+      <c r="B129" s="81"/>
       <c r="C129" s="24">
         <v>10</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F129" s="77"/>
+      <c r="E129" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F129" s="78"/>
       <c r="G129" s="47">
         <v>9.9930000000000003</v>
       </c>
@@ -3850,10 +3830,10 @@
       <c r="I129" s="14"/>
     </row>
     <row r="130" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="75">
+      <c r="A130" s="69">
         <v>100</v>
       </c>
-      <c r="B130" s="74" t="s">
+      <c r="B130" s="81" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="24">
@@ -3862,10 +3842,10 @@
       <c r="D130" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E130" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="F130" s="77"/>
+      <c r="E130" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" s="78"/>
       <c r="G130" s="47">
         <v>9.99</v>
       </c>
@@ -3875,18 +3855,18 @@
       <c r="I130" s="14"/>
     </row>
     <row r="131" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="75"/>
-      <c r="B131" s="74"/>
+      <c r="A131" s="69"/>
+      <c r="B131" s="81"/>
       <c r="C131" s="24">
         <v>50</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="F131" s="77"/>
+      <c r="E131" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="78"/>
       <c r="G131" s="47">
         <v>49.97</v>
       </c>
@@ -3896,18 +3876,18 @@
       <c r="I131" s="14"/>
     </row>
     <row r="132" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="75"/>
-      <c r="B132" s="74"/>
+      <c r="A132" s="69"/>
+      <c r="B132" s="81"/>
       <c r="C132" s="24">
         <v>100</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="77" t="s">
-        <v>162</v>
-      </c>
-      <c r="F132" s="77"/>
+      <c r="E132" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F132" s="78"/>
       <c r="G132" s="47">
         <v>99.944999999999993</v>
       </c>
@@ -3917,10 +3897,10 @@
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="74">
+      <c r="A133" s="81">
         <v>1</v>
       </c>
-      <c r="B133" s="74" t="s">
+      <c r="B133" s="81" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="24">
@@ -3929,10 +3909,10 @@
       <c r="D133" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="F133" s="77"/>
+      <c r="E133" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F133" s="78"/>
       <c r="G133" s="47">
         <v>9.98E-2</v>
       </c>
@@ -3942,18 +3922,18 @@
       <c r="I133" s="14"/>
     </row>
     <row r="134" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="74"/>
-      <c r="B134" s="74"/>
+      <c r="A134" s="81"/>
+      <c r="B134" s="81"/>
       <c r="C134" s="24">
         <v>0.5</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E134" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="F134" s="77"/>
+      <c r="E134" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F134" s="78"/>
       <c r="G134" s="47">
         <v>0.49940000000000001</v>
       </c>
@@ -3963,18 +3943,18 @@
       <c r="I134" s="14"/>
     </row>
     <row r="135" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="74"/>
-      <c r="B135" s="74"/>
+      <c r="A135" s="81"/>
+      <c r="B135" s="81"/>
       <c r="C135" s="24">
         <v>1</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="F135" s="77"/>
+      <c r="E135" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" s="78"/>
       <c r="G135" s="47">
         <v>0.99890000000000001</v>
       </c>
@@ -3984,10 +3964,10 @@
       <c r="I135" s="14"/>
     </row>
     <row r="136" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="74">
+      <c r="A136" s="81">
         <v>3</v>
       </c>
-      <c r="B136" s="74" t="s">
+      <c r="B136" s="81" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="24">
@@ -3996,10 +3976,10 @@
       <c r="D136" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="F136" s="77"/>
+      <c r="E136" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="F136" s="78"/>
       <c r="G136" s="47">
         <v>0.29903999999999997</v>
       </c>
@@ -4009,18 +3989,18 @@
       <c r="I136" s="14"/>
     </row>
     <row r="137" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="74"/>
-      <c r="B137" s="74"/>
+      <c r="A137" s="81"/>
+      <c r="B137" s="81"/>
       <c r="C137" s="24">
         <v>1</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="F137" s="77"/>
+      <c r="E137" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="F137" s="78"/>
       <c r="G137" s="47">
         <v>0.99819999999999998</v>
       </c>
@@ -4030,18 +4010,18 @@
       <c r="I137" s="14"/>
     </row>
     <row r="138" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="74"/>
-      <c r="B138" s="74"/>
+      <c r="A138" s="81"/>
+      <c r="B138" s="81"/>
       <c r="C138" s="24">
         <v>2.5</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F138" s="77"/>
+      <c r="E138" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="F138" s="78"/>
       <c r="G138" s="47">
         <v>2.4964</v>
       </c>
@@ -4063,39 +4043,39 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="75" t="s">
+      <c r="A141" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="75"/>
-      <c r="C141" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D141" s="75"/>
-      <c r="E141" s="75" t="s">
+      <c r="B141" s="69"/>
+      <c r="C141" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="75" t="s">
+      <c r="F141" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G141" s="78" t="s">
+      <c r="G141" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H141" s="78"/>
+      <c r="H141" s="77"/>
       <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="75"/>
-      <c r="B142" s="75"/>
-      <c r="C142" s="75"/>
-      <c r="D142" s="75"/>
-      <c r="E142" s="75"/>
-      <c r="F142" s="75"/>
+      <c r="A142" s="69"/>
+      <c r="B142" s="69"/>
+      <c r="C142" s="69"/>
+      <c r="D142" s="69"/>
+      <c r="E142" s="69"/>
+      <c r="F142" s="69"/>
       <c r="G142" s="40" t="s">
         <v>18</v>
       </c>
@@ -4105,23 +4085,23 @@
       <c r="I142" s="13"/>
     </row>
     <row r="143" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="75">
+      <c r="A143" s="69">
         <v>1</v>
       </c>
-      <c r="B143" s="74" t="s">
+      <c r="B143" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="74">
+      <c r="C143" s="81">
         <v>0.1</v>
       </c>
-      <c r="D143" s="74" t="s">
+      <c r="D143" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E143" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F143" s="64" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G143" s="47">
         <v>9.9299999999999999E-2</v>
@@ -4132,53 +4112,53 @@
       <c r="I143" s="14"/>
     </row>
     <row r="144" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="75"/>
-      <c r="B144" s="74"/>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
+      <c r="A144" s="69"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="81"/>
+      <c r="D144" s="81"/>
       <c r="E144" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F144" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="G144" s="78">
+        <v>165</v>
+      </c>
+      <c r="G144" s="77">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="H144" s="78">
+      <c r="H144" s="77">
         <v>0.10050000000000001</v>
       </c>
       <c r="I144" s="14"/>
     </row>
     <row r="145" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="75"/>
-      <c r="B145" s="74"/>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
+      <c r="A145" s="69"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
       <c r="E145" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F145" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G145" s="78"/>
-      <c r="H145" s="78"/>
+        <v>166</v>
+      </c>
+      <c r="G145" s="77"/>
+      <c r="H145" s="77"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="75"/>
-      <c r="B146" s="74"/>
-      <c r="C146" s="74">
+      <c r="A146" s="69"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="81">
         <v>0.5</v>
       </c>
-      <c r="D146" s="74" t="s">
+      <c r="D146" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E146" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F146" s="64" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G146" s="26">
         <v>0.49809999999999999</v>
@@ -4189,53 +4169,53 @@
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="75"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
+      <c r="A147" s="69"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="81"/>
       <c r="E147" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="G147" s="78">
+        <v>168</v>
+      </c>
+      <c r="G147" s="77">
         <v>0.49909999999999999</v>
       </c>
-      <c r="H147" s="78">
+      <c r="H147" s="77">
         <v>0.50090000000000001</v>
       </c>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="75"/>
-      <c r="B148" s="74"/>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
+      <c r="A148" s="69"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="81"/>
       <c r="E148" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F148" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="G148" s="78"/>
-      <c r="H148" s="78"/>
+        <v>169</v>
+      </c>
+      <c r="G148" s="77"/>
+      <c r="H148" s="77"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="75"/>
-      <c r="B149" s="74"/>
-      <c r="C149" s="76">
+      <c r="A149" s="69"/>
+      <c r="B149" s="81"/>
+      <c r="C149" s="83">
         <v>1</v>
       </c>
-      <c r="D149" s="74" t="s">
+      <c r="D149" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E149" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F149" s="64" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G149" s="26">
         <v>0.99660000000000004</v>
@@ -4246,57 +4226,57 @@
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="75"/>
-      <c r="B150" s="74"/>
-      <c r="C150" s="76"/>
-      <c r="D150" s="74"/>
+      <c r="A150" s="69"/>
+      <c r="B150" s="81"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="81"/>
       <c r="E150" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F150" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="G150" s="78">
+        <v>171</v>
+      </c>
+      <c r="G150" s="77">
         <v>0.99860000000000004</v>
       </c>
-      <c r="H150" s="78">
+      <c r="H150" s="77">
         <v>1.0014000000000001</v>
       </c>
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="75"/>
-      <c r="B151" s="74"/>
-      <c r="C151" s="76"/>
-      <c r="D151" s="74"/>
+      <c r="A151" s="69"/>
+      <c r="B151" s="81"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="81"/>
       <c r="E151" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F151" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G151" s="78"/>
-      <c r="H151" s="78"/>
+        <v>172</v>
+      </c>
+      <c r="G151" s="77"/>
+      <c r="H151" s="77"/>
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="75">
+      <c r="A152" s="69">
         <v>3</v>
       </c>
-      <c r="B152" s="74" t="s">
+      <c r="B152" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="76">
+      <c r="C152" s="83">
         <v>0.3</v>
       </c>
-      <c r="D152" s="74" t="s">
+      <c r="D152" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F152" s="64" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G152" s="26">
         <v>0.29715000000000003</v>
@@ -4307,53 +4287,53 @@
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="75"/>
-      <c r="B153" s="74"/>
-      <c r="C153" s="76"/>
-      <c r="D153" s="74"/>
+      <c r="A153" s="69"/>
+      <c r="B153" s="81"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="81"/>
       <c r="E153" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F153" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="G153" s="78">
+        <v>174</v>
+      </c>
+      <c r="G153" s="77">
         <v>0.29775000000000001</v>
       </c>
-      <c r="H153" s="78">
+      <c r="H153" s="77">
         <v>0.30225000000000002</v>
       </c>
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="75"/>
-      <c r="B154" s="74"/>
-      <c r="C154" s="76"/>
-      <c r="D154" s="74"/>
+      <c r="A154" s="69"/>
+      <c r="B154" s="81"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="81"/>
       <c r="E154" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F154" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="G154" s="78"/>
-      <c r="H154" s="78"/>
+        <v>175</v>
+      </c>
+      <c r="G154" s="77"/>
+      <c r="H154" s="77"/>
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="75"/>
-      <c r="B155" s="74"/>
-      <c r="C155" s="76">
+      <c r="A155" s="69"/>
+      <c r="B155" s="81"/>
+      <c r="C155" s="83">
         <v>1</v>
       </c>
-      <c r="D155" s="74" t="s">
+      <c r="D155" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E155" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F155" s="64" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G155" s="26">
         <v>0.99470000000000003</v>
@@ -4364,53 +4344,53 @@
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="75"/>
-      <c r="B156" s="74"/>
-      <c r="C156" s="76"/>
-      <c r="D156" s="74"/>
+      <c r="A156" s="69"/>
+      <c r="B156" s="81"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="81"/>
       <c r="E156" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="G156" s="78">
+        <v>177</v>
+      </c>
+      <c r="G156" s="77">
         <v>0.99790000000000001</v>
       </c>
-      <c r="H156" s="78">
+      <c r="H156" s="77">
         <v>1.0021</v>
       </c>
       <c r="I156" s="14"/>
     </row>
     <row r="157" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="75"/>
-      <c r="B157" s="74"/>
-      <c r="C157" s="76"/>
-      <c r="D157" s="74"/>
+      <c r="A157" s="69"/>
+      <c r="B157" s="81"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="81"/>
       <c r="E157" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F157" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="G157" s="78"/>
-      <c r="H157" s="78"/>
+        <v>178</v>
+      </c>
+      <c r="G157" s="77"/>
+      <c r="H157" s="77"/>
       <c r="I157" s="14"/>
     </row>
     <row r="158" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="75"/>
-      <c r="B158" s="74"/>
-      <c r="C158" s="76">
+      <c r="A158" s="69"/>
+      <c r="B158" s="81"/>
+      <c r="C158" s="83">
         <v>2.5</v>
       </c>
-      <c r="D158" s="74" t="s">
+      <c r="D158" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E158" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F158" s="64" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G158" s="26">
         <v>2.4894500000000002</v>
@@ -4421,37 +4401,37 @@
       <c r="I158" s="14"/>
     </row>
     <row r="159" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="75"/>
-      <c r="B159" s="74"/>
-      <c r="C159" s="76"/>
-      <c r="D159" s="74"/>
+      <c r="A159" s="69"/>
+      <c r="B159" s="81"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="81"/>
       <c r="E159" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="G159" s="78">
+        <v>180</v>
+      </c>
+      <c r="G159" s="77">
         <v>2.4944500000000001</v>
       </c>
-      <c r="H159" s="78">
+      <c r="H159" s="77">
         <v>2.5055499999999999</v>
       </c>
       <c r="I159" s="14"/>
     </row>
     <row r="160" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="75"/>
-      <c r="B160" s="74"/>
-      <c r="C160" s="76"/>
-      <c r="D160" s="74"/>
+      <c r="A160" s="69"/>
+      <c r="B160" s="81"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="81"/>
       <c r="E160" s="48" t="s">
         <v>20</v>
       </c>
       <c r="F160" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="G160" s="78"/>
-      <c r="H160" s="78"/>
+        <v>181</v>
+      </c>
+      <c r="G160" s="77"/>
+      <c r="H160" s="77"/>
       <c r="I160" s="14"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -4467,43 +4447,43 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="75" t="s">
+      <c r="A164" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B164" s="75"/>
-      <c r="C164" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D164" s="75"/>
-      <c r="E164" s="75" t="s">
+      <c r="B164" s="69"/>
+      <c r="C164" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D164" s="69"/>
+      <c r="E164" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F164" s="75"/>
-      <c r="G164" s="78" t="s">
+      <c r="F164" s="69"/>
+      <c r="G164" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H164" s="78"/>
+      <c r="H164" s="77"/>
     </row>
     <row r="165" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="75"/>
-      <c r="B165" s="75"/>
-      <c r="C165" s="75"/>
-      <c r="D165" s="75"/>
-      <c r="E165" s="75"/>
-      <c r="F165" s="75"/>
+      <c r="A165" s="69"/>
+      <c r="B165" s="69"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="69"/>
+      <c r="F165" s="69"/>
       <c r="G165" s="40" t="s">
         <v>18</v>
       </c>
@@ -4513,10 +4493,10 @@
       <c r="I165" s="13"/>
     </row>
     <row r="166" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="75">
+      <c r="A166" s="69">
         <v>100</v>
       </c>
-      <c r="B166" s="74" t="s">
+      <c r="B166" s="81" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="24">
@@ -4525,10 +4505,10 @@
       <c r="D166" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E166" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="F166" s="77"/>
+      <c r="E166" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="F166" s="78"/>
       <c r="G166" s="47">
         <v>9.9949999999999992</v>
       </c>
@@ -4538,18 +4518,18 @@
       <c r="I166" s="14"/>
     </row>
     <row r="167" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="75"/>
-      <c r="B167" s="74"/>
+      <c r="A167" s="69"/>
+      <c r="B167" s="81"/>
       <c r="C167" s="24">
         <v>50</v>
       </c>
       <c r="D167" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="F167" s="77"/>
+      <c r="E167" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F167" s="78"/>
       <c r="G167" s="47">
         <v>49.991</v>
       </c>
@@ -4559,18 +4539,18 @@
       <c r="I167" s="14"/>
     </row>
     <row r="168" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="75"/>
-      <c r="B168" s="74"/>
+      <c r="A168" s="69"/>
+      <c r="B168" s="81"/>
       <c r="C168" s="24">
         <v>100</v>
       </c>
       <c r="D168" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E168" s="77" t="s">
-        <v>212</v>
-      </c>
-      <c r="F168" s="77"/>
+      <c r="E168" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="F168" s="78"/>
       <c r="G168" s="47">
         <v>99.986000000000004</v>
       </c>
@@ -4580,10 +4560,10 @@
       <c r="I168" s="14"/>
     </row>
     <row r="169" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="75">
+      <c r="A169" s="69">
         <v>1</v>
       </c>
-      <c r="B169" s="74" t="s">
+      <c r="B169" s="81" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="49">
@@ -4592,10 +4572,10 @@
       <c r="D169" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E169" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="F169" s="77"/>
+      <c r="E169" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="F169" s="78"/>
       <c r="G169" s="47">
         <v>9.9979999999999999E-2</v>
       </c>
@@ -4605,18 +4585,18 @@
       <c r="I169" s="14"/>
     </row>
     <row r="170" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="75"/>
-      <c r="B170" s="74"/>
+      <c r="A170" s="69"/>
+      <c r="B170" s="81"/>
       <c r="C170" s="24">
         <v>0.5</v>
       </c>
       <c r="D170" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E170" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="F170" s="77"/>
+      <c r="E170" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="F170" s="78"/>
       <c r="G170" s="47">
         <v>0.49994</v>
       </c>
@@ -4626,18 +4606,18 @@
       <c r="I170" s="14"/>
     </row>
     <row r="171" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="75"/>
-      <c r="B171" s="74"/>
+      <c r="A171" s="69"/>
+      <c r="B171" s="81"/>
       <c r="C171" s="24">
         <v>1</v>
       </c>
       <c r="D171" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E171" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="F171" s="77"/>
+      <c r="E171" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F171" s="78"/>
       <c r="G171" s="47">
         <v>0.99988999999999995</v>
       </c>
@@ -4648,7 +4628,7 @@
     </row>
     <row r="172" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A172" s="66" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B172" s="31"/>
       <c r="C172" s="59"/>
@@ -4660,31 +4640,31 @@
       <c r="I172" s="14"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="75" t="s">
+      <c r="A173" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B173" s="75"/>
-      <c r="C173" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D173" s="75"/>
-      <c r="E173" s="75" t="s">
+      <c r="B173" s="69"/>
+      <c r="C173" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D173" s="69"/>
+      <c r="E173" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F173" s="75"/>
-      <c r="G173" s="78" t="s">
+      <c r="F173" s="69"/>
+      <c r="G173" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="H173" s="78"/>
+      <c r="H173" s="77"/>
       <c r="I173" s="14"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="75"/>
-      <c r="B174" s="75"/>
-      <c r="C174" s="75"/>
-      <c r="D174" s="75"/>
-      <c r="E174" s="75"/>
-      <c r="F174" s="75"/>
+      <c r="A174" s="69"/>
+      <c r="B174" s="69"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="69"/>
+      <c r="E174" s="69"/>
+      <c r="F174" s="69"/>
       <c r="G174" s="63" t="s">
         <v>18</v>
       </c>
@@ -4694,10 +4674,10 @@
       <c r="I174" s="14"/>
     </row>
     <row r="175" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="74">
+      <c r="A175" s="81">
         <v>10</v>
       </c>
-      <c r="B175" s="74" t="s">
+      <c r="B175" s="81" t="s">
         <v>12</v>
       </c>
       <c r="C175" s="49">
@@ -4706,10 +4686,10 @@
       <c r="D175" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E175" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="F175" s="77"/>
+      <c r="E175" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F175" s="78"/>
       <c r="G175" s="47">
         <v>0.99980000000000002</v>
       </c>
@@ -4719,18 +4699,18 @@
       <c r="I175" s="14"/>
     </row>
     <row r="176" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="74"/>
-      <c r="B176" s="74"/>
+      <c r="A176" s="81"/>
+      <c r="B176" s="81"/>
       <c r="C176" s="24">
         <v>5</v>
       </c>
       <c r="D176" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E176" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="F176" s="77"/>
+      <c r="E176" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F176" s="78"/>
       <c r="G176" s="47">
         <v>4.9993999999999996</v>
       </c>
@@ -4740,18 +4720,18 @@
       <c r="I176" s="14"/>
     </row>
     <row r="177" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="74"/>
-      <c r="B177" s="74"/>
+      <c r="A177" s="81"/>
+      <c r="B177" s="81"/>
       <c r="C177" s="24">
         <v>10</v>
       </c>
       <c r="D177" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E177" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="F177" s="77"/>
+      <c r="E177" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="F177" s="78"/>
       <c r="G177" s="47">
         <v>9.9989000000000008</v>
       </c>
@@ -4761,10 +4741,10 @@
       <c r="I177" s="14"/>
     </row>
     <row r="178" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="74">
+      <c r="A178" s="81">
         <v>100</v>
       </c>
-      <c r="B178" s="74" t="s">
+      <c r="B178" s="81" t="s">
         <v>12</v>
       </c>
       <c r="C178" s="24">
@@ -4773,10 +4753,10 @@
       <c r="D178" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E178" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="F178" s="77"/>
+      <c r="E178" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F178" s="78"/>
       <c r="G178" s="47">
         <v>9.9979999999999993</v>
       </c>
@@ -4786,18 +4766,18 @@
       <c r="I178" s="14"/>
     </row>
     <row r="179" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="74"/>
-      <c r="B179" s="74"/>
+      <c r="A179" s="81"/>
+      <c r="B179" s="81"/>
       <c r="C179" s="24">
         <v>50</v>
       </c>
       <c r="D179" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E179" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="F179" s="77"/>
+      <c r="E179" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F179" s="78"/>
       <c r="G179" s="47">
         <v>49.994</v>
       </c>
@@ -4807,18 +4787,18 @@
       <c r="I179" s="14"/>
     </row>
     <row r="180" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="74"/>
-      <c r="B180" s="74"/>
+      <c r="A180" s="81"/>
+      <c r="B180" s="81"/>
       <c r="C180" s="24">
         <v>100</v>
       </c>
       <c r="D180" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E180" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="F180" s="77"/>
+      <c r="E180" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="F180" s="78"/>
       <c r="G180" s="47">
         <v>99.989000000000004</v>
       </c>
@@ -4828,10 +4808,10 @@
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="75">
+      <c r="A181" s="69">
         <v>1</v>
       </c>
-      <c r="B181" s="74" t="s">
+      <c r="B181" s="81" t="s">
         <v>13</v>
       </c>
       <c r="C181" s="24">
@@ -4840,10 +4820,10 @@
       <c r="D181" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E181" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="F181" s="77"/>
+      <c r="E181" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="F181" s="78"/>
       <c r="G181" s="47">
         <v>9.9979999999999999E-2</v>
       </c>
@@ -4853,18 +4833,18 @@
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="74"/>
-      <c r="B182" s="74"/>
+      <c r="A182" s="81"/>
+      <c r="B182" s="81"/>
       <c r="C182" s="24">
         <v>0.5</v>
       </c>
       <c r="D182" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E182" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="F182" s="77"/>
+      <c r="E182" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F182" s="78"/>
       <c r="G182" s="47">
         <v>0.49994</v>
       </c>
@@ -4874,18 +4854,18 @@
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="68"/>
-      <c r="B183" s="68"/>
+      <c r="A183" s="67"/>
+      <c r="B183" s="67"/>
       <c r="C183" s="49">
         <v>1</v>
       </c>
       <c r="D183" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E183" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="F183" s="77"/>
+      <c r="E183" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F183" s="78"/>
       <c r="G183" s="47">
         <v>0.99988999999999995</v>
       </c>
@@ -4895,10 +4875,10 @@
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="74">
+      <c r="A184" s="81">
         <v>10</v>
       </c>
-      <c r="B184" s="74" t="s">
+      <c r="B184" s="81" t="s">
         <v>13</v>
       </c>
       <c r="C184" s="49">
@@ -4907,10 +4887,10 @@
       <c r="D184" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="F184" s="77"/>
+      <c r="E184" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F184" s="78"/>
       <c r="G184" s="47">
         <v>0.99950000000000006</v>
       </c>
@@ -4920,18 +4900,18 @@
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="74"/>
-      <c r="B185" s="74"/>
+      <c r="A185" s="81"/>
+      <c r="B185" s="81"/>
       <c r="C185" s="49">
         <v>5</v>
       </c>
       <c r="D185" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E185" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="F185" s="77"/>
+      <c r="E185" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F185" s="78"/>
       <c r="G185" s="47">
         <v>4.9978999999999996</v>
       </c>
@@ -4941,18 +4921,18 @@
       <c r="I185" s="14"/>
     </row>
     <row r="186" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="74"/>
-      <c r="B186" s="74"/>
+      <c r="A186" s="81"/>
+      <c r="B186" s="81"/>
       <c r="C186" s="49">
         <v>10</v>
       </c>
       <c r="D186" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E186" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="F186" s="77"/>
+      <c r="E186" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F186" s="78"/>
       <c r="G186" s="47">
         <v>9.9959000000000007</v>
       </c>
@@ -4962,10 +4942,10 @@
       <c r="I186" s="14"/>
     </row>
     <row r="187" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="74">
+      <c r="A187" s="81">
         <v>100</v>
       </c>
-      <c r="B187" s="74" t="s">
+      <c r="B187" s="81" t="s">
         <v>13</v>
       </c>
       <c r="C187" s="49">
@@ -4974,10 +4954,10 @@
       <c r="D187" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E187" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="F187" s="77"/>
+      <c r="E187" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F187" s="78"/>
       <c r="G187" s="47">
         <v>9.91</v>
       </c>
@@ -4987,18 +4967,18 @@
       <c r="I187" s="14"/>
     </row>
     <row r="188" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="74"/>
-      <c r="B188" s="74"/>
+      <c r="A188" s="81"/>
+      <c r="B188" s="81"/>
       <c r="C188" s="49">
         <v>50</v>
       </c>
       <c r="D188" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="F188" s="77"/>
+      <c r="E188" s="78" t="s">
+        <v>198</v>
+      </c>
+      <c r="F188" s="78"/>
       <c r="G188" s="47">
         <v>49.59</v>
       </c>
@@ -5008,18 +4988,18 @@
       <c r="I188" s="14"/>
     </row>
     <row r="189" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A189" s="74"/>
-      <c r="B189" s="74"/>
+      <c r="A189" s="81"/>
+      <c r="B189" s="81"/>
       <c r="C189" s="49">
         <v>100</v>
       </c>
       <c r="D189" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E189" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="F189" s="77"/>
+      <c r="E189" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="F189" s="78"/>
       <c r="G189" s="47">
         <v>99.19</v>
       </c>
@@ -5041,7 +5021,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B191" s="31"/>
       <c r="C191" s="39"/>
@@ -5053,25 +5033,25 @@
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="85" t="s">
+      <c r="A192" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B192" s="85"/>
-      <c r="C192" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D192" s="75"/>
-      <c r="E192" s="86" t="s">
+      <c r="B192" s="68"/>
+      <c r="C192" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D192" s="69"/>
+      <c r="E192" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F192" s="86"/>
+      <c r="F192" s="71"/>
       <c r="G192" s="14"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="85"/>
-      <c r="B193" s="85"/>
-      <c r="C193" s="75"/>
-      <c r="D193" s="75"/>
+      <c r="A193" s="68"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="69"/>
+      <c r="D193" s="69"/>
       <c r="E193" s="57" t="s">
         <v>18</v>
       </c>
@@ -5085,12 +5065,12 @@
         <v>10</v>
       </c>
       <c r="B194" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C194" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="D194" s="79"/>
+        <v>200</v>
+      </c>
+      <c r="C194" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D194" s="70"/>
       <c r="E194" s="56">
         <v>9.9949999999999992</v>
       </c>
@@ -5103,13 +5083,13 @@
       <c r="A195" s="55">
         <v>50</v>
       </c>
-      <c r="B195" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C195" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="D195" s="79"/>
+      <c r="B195" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C195" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D195" s="70"/>
       <c r="E195" s="56">
         <v>49.984999999999999</v>
       </c>
@@ -5122,11 +5102,11 @@
       <c r="A196" s="55">
         <v>300</v>
       </c>
-      <c r="B196" s="88"/>
-      <c r="C196" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="D196" s="79"/>
+      <c r="B196" s="73"/>
+      <c r="C196" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D196" s="70"/>
       <c r="E196" s="56">
         <v>299.97000000000003</v>
       </c>
@@ -5145,20 +5125,20 @@
       <c r="I198" s="14"/>
     </row>
     <row r="200" spans="1:9" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="B200" s="82"/>
+      <c r="A200" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B200" s="74"/>
       <c r="C200" s="51"/>
       <c r="D200" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E200" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="F200" s="90"/>
+        <v>62</v>
+      </c>
+      <c r="E200" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F200" s="76"/>
       <c r="G200" s="22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H200" s="53"/>
       <c r="I200" s="1"/>
@@ -5175,14 +5155,14 @@
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A202" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B202" s="82"/>
-      <c r="C202" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="D202" s="83"/>
+      <c r="A202" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B202" s="74"/>
+      <c r="C202" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D202" s="79"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -5191,6 +5171,204 @@
     </row>
   </sheetData>
   <mergeCells count="222">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A72:A86"/>
+    <mergeCell ref="B72:B86"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="D107:D110"/>
+    <mergeCell ref="A87:A98"/>
+    <mergeCell ref="B87:B98"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="A164:B165"/>
+    <mergeCell ref="C164:D165"/>
+    <mergeCell ref="E164:F165"/>
+    <mergeCell ref="A173:B174"/>
+    <mergeCell ref="C173:D174"/>
+    <mergeCell ref="E173:F174"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="A141:B142"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A111:A122"/>
+    <mergeCell ref="B111:B122"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E125:F126"/>
+    <mergeCell ref="B143:B151"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A143:A151"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="A58:A71"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="A152:A160"/>
+    <mergeCell ref="B152:B160"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="G159:G160"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="A192:B193"/>
     <mergeCell ref="C192:D193"/>
@@ -5215,208 +5393,10 @@
     <mergeCell ref="E136:F136"/>
     <mergeCell ref="E138:F138"/>
     <mergeCell ref="G141:H141"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G156:G157"/>
-    <mergeCell ref="H156:H157"/>
-    <mergeCell ref="A58:A71"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="A152:A160"/>
-    <mergeCell ref="B152:B160"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A143:A151"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="B178:B180"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="B143:B151"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A111:A122"/>
-    <mergeCell ref="B111:B122"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E125:F126"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="A125:B126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="A164:B165"/>
-    <mergeCell ref="C164:D165"/>
-    <mergeCell ref="E164:F165"/>
-    <mergeCell ref="A173:B174"/>
-    <mergeCell ref="C173:D174"/>
-    <mergeCell ref="E173:F174"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="A141:B142"/>
-    <mergeCell ref="C141:D142"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A72:A86"/>
-    <mergeCell ref="B72:B86"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="D107:D110"/>
-    <mergeCell ref="A87:A98"/>
-    <mergeCell ref="B87:B98"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;"Times New Roman,обычный"&amp;11&amp;P страница из &amp;N</oddFooter>
   </headerFooter>

--- a/Shablon/34401A_gost.xlsx
+++ b/Shablon/34401A_gost.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="219">
   <si>
     <t>Предел измерений</t>
   </si>
@@ -716,9 +716,6 @@
     <t>r4_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Протокол поверки № </t>
-  </si>
-  <si>
     <t>Установленное значение</t>
   </si>
   <si>
@@ -766,7 +763,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -864,6 +861,11 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -989,10 +991,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1165,65 +1168,17 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1235,18 +1190,70 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1551,7 +1558,7 @@
   <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1561,86 +1568,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="A7" s="91" t="str">
+        <f>"Протокол поверки № 10/"&amp;C199&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -1653,11 +1661,11 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1669,11 +1677,11 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1683,11 +1691,11 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1695,11 +1703,11 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
@@ -1709,11 +1717,11 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
@@ -1723,11 +1731,11 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
@@ -1737,11 +1745,11 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1766,109 +1774,109 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73" t="s">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73" t="s">
+      <c r="E19" s="67"/>
+      <c r="F19" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="73"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="73"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="67"/>
       <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89" t="s">
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="73" t="s">
+      <c r="E21" s="66"/>
+      <c r="F21" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="73"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="73" t="s">
+      <c r="E22" s="66"/>
+      <c r="F22" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="73"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="73" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="73"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="73" t="s">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="73"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -1942,7 +1950,7 @@
       </c>
       <c r="B32" s="76"/>
       <c r="C32" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="76"/>
       <c r="E32" s="76" t="s">
@@ -1972,7 +1980,7 @@
       <c r="A34" s="76">
         <v>100</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="75" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="21">
@@ -1981,10 +1989,10 @@
       <c r="D34" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="75"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="23">
         <v>9.9960000000000004</v>
       </c>
@@ -1994,17 +2002,17 @@
     </row>
     <row r="35" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A35" s="76"/>
-      <c r="B35" s="74"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="21">
         <v>50</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="80"/>
       <c r="G35" s="23">
         <v>49.994</v>
       </c>
@@ -2014,17 +2022,17 @@
     </row>
     <row r="36" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A36" s="76"/>
-      <c r="B36" s="74"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21">
         <v>100</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="80"/>
       <c r="G36" s="53">
         <v>99.991500000000002</v>
       </c>
@@ -2034,17 +2042,17 @@
     </row>
     <row r="37" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A37" s="76"/>
-      <c r="B37" s="74"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="21">
         <v>-100</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="80"/>
       <c r="G37" s="53">
         <v>-100.0085</v>
       </c>
@@ -2056,7 +2064,7 @@
       <c r="A38" s="76">
         <v>1</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="75" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="21">
@@ -2065,10 +2073,10 @@
       <c r="D38" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="80"/>
       <c r="G38" s="23">
         <v>9.9988999999999995E-2</v>
       </c>
@@ -2078,17 +2086,17 @@
     </row>
     <row r="39" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A39" s="76"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="21">
         <v>0.5</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="80"/>
       <c r="G39" s="23">
         <v>0.499973</v>
       </c>
@@ -2098,17 +2106,17 @@
     </row>
     <row r="40" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A40" s="76"/>
-      <c r="B40" s="74"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="21">
         <v>1</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="75"/>
+      <c r="F40" s="80"/>
       <c r="G40" s="53">
         <v>0.99995299999999998</v>
       </c>
@@ -2118,17 +2126,17 @@
     </row>
     <row r="41" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A41" s="76"/>
-      <c r="B41" s="74"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="21">
         <v>-1</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="75"/>
+      <c r="F41" s="80"/>
       <c r="G41" s="53">
         <v>-1.0000469999999999</v>
       </c>
@@ -2137,10 +2145,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="74">
+      <c r="A42" s="75">
         <v>10</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="75" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="21">
@@ -2149,10 +2157,10 @@
       <c r="D42" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="75" t="s">
+      <c r="E42" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="75"/>
+      <c r="F42" s="80"/>
       <c r="G42" s="23">
         <v>0.999915</v>
       </c>
@@ -2161,18 +2169,18 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="21">
         <v>5</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="75"/>
+      <c r="F43" s="80"/>
       <c r="G43" s="23">
         <v>4.9997749999999996</v>
       </c>
@@ -2181,18 +2189,18 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="21">
         <v>10</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="75" t="s">
+      <c r="E44" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="75"/>
+      <c r="F44" s="80"/>
       <c r="G44" s="53">
         <v>9.9995999999999992</v>
       </c>
@@ -2201,18 +2209,18 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="21">
         <v>-10</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="75"/>
+      <c r="F45" s="80"/>
       <c r="G45" s="53">
         <v>-10.000400000000001</v>
       </c>
@@ -2221,10 +2229,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="74">
+      <c r="A46" s="75">
         <v>100</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="75" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="21">
@@ -2233,10 +2241,10 @@
       <c r="D46" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="75" t="s">
+      <c r="E46" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="75"/>
+      <c r="F46" s="80"/>
       <c r="G46" s="23">
         <v>9.9995499999999993</v>
       </c>
@@ -2245,18 +2253,18 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="21">
         <v>50</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="75"/>
+      <c r="F47" s="80"/>
       <c r="G47" s="23">
         <v>49.997149999999998</v>
       </c>
@@ -2265,18 +2273,18 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
       <c r="C48" s="21">
         <v>100</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="75" t="s">
+      <c r="E48" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="75"/>
+      <c r="F48" s="80"/>
       <c r="G48" s="53">
         <v>99.994900000000001</v>
       </c>
@@ -2285,18 +2293,18 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="21">
         <v>-100</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="75"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="53">
         <v>-100.0051</v>
       </c>
@@ -2308,7 +2316,7 @@
       <c r="A50" s="76">
         <v>1000</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="75" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="21">
@@ -2317,10 +2325,10 @@
       <c r="D50" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="75" t="s">
+      <c r="E50" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="75"/>
+      <c r="F50" s="80"/>
       <c r="G50" s="23">
         <v>99.985500000000002</v>
       </c>
@@ -2330,17 +2338,17 @@
     </row>
     <row r="51" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
-      <c r="B51" s="74"/>
+      <c r="B51" s="75"/>
       <c r="C51" s="21">
         <v>500</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="75" t="s">
+      <c r="E51" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="75"/>
+      <c r="F51" s="80"/>
       <c r="G51" s="23">
         <v>499.96749999999997</v>
       </c>
@@ -2350,17 +2358,17 @@
     </row>
     <row r="52" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="76"/>
-      <c r="B52" s="74"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="21">
         <v>1000</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="75" t="s">
+      <c r="E52" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="75"/>
+      <c r="F52" s="80"/>
       <c r="G52" s="53">
         <v>999.94500000000005</v>
       </c>
@@ -2370,17 +2378,17 @@
     </row>
     <row r="53" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="76"/>
-      <c r="B53" s="74"/>
+      <c r="B53" s="75"/>
       <c r="C53" s="21">
         <v>-1000</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="75" t="s">
+      <c r="E53" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="75"/>
+      <c r="F53" s="80"/>
       <c r="G53" s="53">
         <v>-1000.0549999999999</v>
       </c>
@@ -2401,7 +2409,7 @@
       </c>
       <c r="B55" s="76"/>
       <c r="C55" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" s="76"/>
       <c r="E55" s="76" t="s">
@@ -2436,10 +2444,10 @@
       <c r="B57" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="79">
+      <c r="C57" s="82">
         <v>10</v>
       </c>
-      <c r="D57" s="74" t="s">
+      <c r="D57" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="20" t="s">
@@ -2458,8 +2466,8 @@
     <row r="58" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A58" s="76"/>
       <c r="B58" s="76"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="74"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="75"/>
       <c r="E58" s="20" t="s">
         <v>9</v>
       </c>
@@ -2476,8 +2484,8 @@
     <row r="59" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A59" s="76"/>
       <c r="B59" s="76"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="74"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="75"/>
       <c r="E59" s="20" t="s">
         <v>16</v>
       </c>
@@ -2494,8 +2502,8 @@
     <row r="60" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A60" s="76"/>
       <c r="B60" s="76"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="74"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="20" t="s">
         <v>5</v>
       </c>
@@ -2512,10 +2520,10 @@
     <row r="61" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A61" s="76"/>
       <c r="B61" s="76"/>
-      <c r="C61" s="79">
+      <c r="C61" s="82">
         <v>50</v>
       </c>
-      <c r="D61" s="74" t="s">
+      <c r="D61" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="20" t="s">
@@ -2534,8 +2542,8 @@
     <row r="62" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A62" s="76"/>
       <c r="B62" s="76"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="74"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="75"/>
       <c r="E62" s="20" t="s">
         <v>9</v>
       </c>
@@ -2552,8 +2560,8 @@
     <row r="63" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A63" s="76"/>
       <c r="B63" s="76"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="74"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="75"/>
       <c r="E63" s="20" t="s">
         <v>16</v>
       </c>
@@ -2570,8 +2578,8 @@
     <row r="64" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A64" s="76"/>
       <c r="B64" s="76"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="74"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="75"/>
       <c r="E64" s="20" t="s">
         <v>5</v>
       </c>
@@ -2588,8 +2596,8 @@
     <row r="65" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A65" s="76"/>
       <c r="B65" s="76"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="74"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="75"/>
       <c r="E65" s="20" t="s">
         <v>17</v>
       </c>
@@ -2606,10 +2614,10 @@
     <row r="66" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A66" s="76"/>
       <c r="B66" s="76"/>
-      <c r="C66" s="80">
+      <c r="C66" s="77">
         <v>100</v>
       </c>
-      <c r="D66" s="74" t="s">
+      <c r="D66" s="75" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="20" t="s">
@@ -2628,8 +2636,8 @@
     <row r="67" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A67" s="76"/>
       <c r="B67" s="76"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="74"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="75"/>
       <c r="E67" s="20" t="s">
         <v>9</v>
       </c>
@@ -2646,8 +2654,8 @@
     <row r="68" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A68" s="76"/>
       <c r="B68" s="76"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="74"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="75"/>
       <c r="E68" s="20" t="s">
         <v>16</v>
       </c>
@@ -2664,8 +2672,8 @@
     <row r="69" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A69" s="76"/>
       <c r="B69" s="76"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="74"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="75"/>
       <c r="E69" s="20" t="s">
         <v>5</v>
       </c>
@@ -2682,8 +2690,8 @@
     <row r="70" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A70" s="76"/>
       <c r="B70" s="76"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="74"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="75"/>
       <c r="E70" s="20" t="s">
         <v>17</v>
       </c>
@@ -2698,16 +2706,16 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="82">
+      <c r="A71" s="72">
         <v>1</v>
       </c>
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="83">
+      <c r="C71" s="73">
         <v>100</v>
       </c>
-      <c r="D71" s="84" t="s">
+      <c r="D71" s="74" t="s">
         <v>2</v>
       </c>
       <c r="E71" s="20" t="s">
@@ -2724,10 +2732,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="82"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="84"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="20" t="s">
         <v>9</v>
       </c>
@@ -2742,10 +2750,10 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="82"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="84"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
       <c r="E73" s="20" t="s">
         <v>16</v>
       </c>
@@ -2760,10 +2768,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="82"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="84"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="20" t="s">
         <v>5</v>
       </c>
@@ -2778,10 +2786,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="82"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="84"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="20" t="s">
         <v>17</v>
       </c>
@@ -2796,12 +2804,12 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="82"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="83">
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="73">
         <v>500</v>
       </c>
-      <c r="D76" s="84" t="s">
+      <c r="D76" s="74" t="s">
         <v>2</v>
       </c>
       <c r="E76" s="20" t="s">
@@ -2818,10 +2826,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="82"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="84"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="20" t="s">
         <v>9</v>
       </c>
@@ -2836,10 +2844,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="82"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="84"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74"/>
       <c r="E78" s="20" t="s">
         <v>16</v>
       </c>
@@ -2854,10 +2862,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="82"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="84"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="20" t="s">
         <v>5</v>
       </c>
@@ -2872,10 +2880,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="82"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="84"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="74"/>
       <c r="E80" s="20" t="s">
         <v>17</v>
       </c>
@@ -2890,12 +2898,12 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="83">
+      <c r="A81" s="72"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="73">
         <v>1</v>
       </c>
-      <c r="D81" s="84" t="s">
+      <c r="D81" s="74" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="20" t="s">
@@ -2912,10 +2920,10 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="82"/>
-      <c r="B82" s="82"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="84"/>
+      <c r="A82" s="72"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="74"/>
       <c r="E82" s="20" t="s">
         <v>9</v>
       </c>
@@ -2930,10 +2938,10 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="82"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="84"/>
+      <c r="A83" s="72"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
       <c r="E83" s="20" t="s">
         <v>16</v>
       </c>
@@ -2948,10 +2956,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="82"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="84"/>
+      <c r="A84" s="72"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="74"/>
       <c r="E84" s="20" t="s">
         <v>5</v>
       </c>
@@ -2966,10 +2974,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="82"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="84"/>
+      <c r="A85" s="72"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="74"/>
       <c r="E85" s="20" t="s">
         <v>17</v>
       </c>
@@ -2984,16 +2992,16 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="84">
+      <c r="A86" s="74">
         <v>10</v>
       </c>
-      <c r="B86" s="82" t="s">
+      <c r="B86" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="80">
+      <c r="C86" s="77">
         <v>1</v>
       </c>
-      <c r="D86" s="74" t="s">
+      <c r="D86" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="20" t="s">
@@ -3010,10 +3018,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="84"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="74"/>
+      <c r="A87" s="74"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="75"/>
       <c r="E87" s="20" t="s">
         <v>9</v>
       </c>
@@ -3028,10 +3036,10 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="84"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="74"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="75"/>
       <c r="E88" s="20" t="s">
         <v>16</v>
       </c>
@@ -3046,10 +3054,10 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="84"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="74"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="75"/>
       <c r="E89" s="20" t="s">
         <v>5</v>
       </c>
@@ -3064,12 +3072,12 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="84"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="80">
+      <c r="A90" s="74"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="77">
         <v>5</v>
       </c>
-      <c r="D90" s="74" t="s">
+      <c r="D90" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="20" t="s">
@@ -3086,10 +3094,10 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="84"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="74"/>
+      <c r="A91" s="74"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="75"/>
       <c r="E91" s="20" t="s">
         <v>9</v>
       </c>
@@ -3104,10 +3112,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="84"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="74"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="75"/>
       <c r="E92" s="20" t="s">
         <v>16</v>
       </c>
@@ -3122,10 +3130,10 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="84"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="74"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="75"/>
       <c r="E93" s="20" t="s">
         <v>5</v>
       </c>
@@ -3140,12 +3148,12 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="84"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="80">
+      <c r="A94" s="74"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="77">
         <v>10</v>
       </c>
-      <c r="D94" s="74" t="s">
+      <c r="D94" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="20" t="s">
@@ -3162,10 +3170,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="84"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="74"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="75"/>
       <c r="E95" s="20" t="s">
         <v>9</v>
       </c>
@@ -3180,10 +3188,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="84"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="74"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="75"/>
       <c r="E96" s="20" t="s">
         <v>16</v>
       </c>
@@ -3198,10 +3206,10 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="84"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="74"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="75"/>
       <c r="E97" s="20" t="s">
         <v>5</v>
       </c>
@@ -3216,16 +3224,16 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="74">
+      <c r="A98" s="75">
         <v>100</v>
       </c>
       <c r="B98" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="80">
+      <c r="C98" s="77">
         <v>10</v>
       </c>
-      <c r="D98" s="74" t="s">
+      <c r="D98" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="20" t="s">
@@ -3242,10 +3250,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="74"/>
+      <c r="A99" s="75"/>
       <c r="B99" s="76"/>
-      <c r="C99" s="80"/>
-      <c r="D99" s="74"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="75"/>
       <c r="E99" s="20" t="s">
         <v>9</v>
       </c>
@@ -3260,10 +3268,10 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="74"/>
+      <c r="A100" s="75"/>
       <c r="B100" s="76"/>
-      <c r="C100" s="80"/>
-      <c r="D100" s="74"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="75"/>
       <c r="E100" s="20" t="s">
         <v>16</v>
       </c>
@@ -3278,10 +3286,10 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="74"/>
+      <c r="A101" s="75"/>
       <c r="B101" s="76"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="74"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="75"/>
       <c r="E101" s="20" t="s">
         <v>5</v>
       </c>
@@ -3296,12 +3304,12 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="74"/>
+      <c r="A102" s="75"/>
       <c r="B102" s="76"/>
-      <c r="C102" s="80">
+      <c r="C102" s="77">
         <v>30</v>
       </c>
-      <c r="D102" s="74" t="s">
+      <c r="D102" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="20" t="s">
@@ -3318,10 +3326,10 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="74"/>
+      <c r="A103" s="75"/>
       <c r="B103" s="76"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="74"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="75"/>
       <c r="E103" s="20" t="s">
         <v>9</v>
       </c>
@@ -3336,10 +3344,10 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="74"/>
+      <c r="A104" s="75"/>
       <c r="B104" s="76"/>
-      <c r="C104" s="80"/>
-      <c r="D104" s="74"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="75"/>
       <c r="E104" s="20" t="s">
         <v>16</v>
       </c>
@@ -3354,10 +3362,10 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="74"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="76"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="74"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="75"/>
       <c r="E105" s="20" t="s">
         <v>5</v>
       </c>
@@ -3372,12 +3380,12 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="74"/>
+      <c r="A106" s="75"/>
       <c r="B106" s="76"/>
-      <c r="C106" s="80">
+      <c r="C106" s="77">
         <v>100</v>
       </c>
-      <c r="D106" s="74" t="s">
+      <c r="D106" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="20" t="s">
@@ -3394,10 +3402,10 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="74"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="76"/>
-      <c r="C107" s="80"/>
-      <c r="D107" s="74"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="75"/>
       <c r="E107" s="20" t="s">
         <v>9</v>
       </c>
@@ -3412,10 +3420,10 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="74"/>
+      <c r="A108" s="75"/>
       <c r="B108" s="76"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="74"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="20" t="s">
         <v>16</v>
       </c>
@@ -3430,10 +3438,10 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="74"/>
+      <c r="A109" s="75"/>
       <c r="B109" s="76"/>
-      <c r="C109" s="80"/>
-      <c r="D109" s="74"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="75"/>
       <c r="E109" s="20" t="s">
         <v>5</v>
       </c>
@@ -3454,10 +3462,10 @@
       <c r="B110" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="80">
+      <c r="C110" s="77">
         <v>100</v>
       </c>
-      <c r="D110" s="74" t="s">
+      <c r="D110" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="20" t="s">
@@ -3476,8 +3484,8 @@
     <row r="111" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A111" s="76"/>
       <c r="B111" s="76"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="74"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="75"/>
       <c r="E111" s="20" t="s">
         <v>9</v>
       </c>
@@ -3494,8 +3502,8 @@
     <row r="112" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A112" s="76"/>
       <c r="B112" s="76"/>
-      <c r="C112" s="80"/>
-      <c r="D112" s="74"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="75"/>
       <c r="E112" s="20" t="s">
         <v>16</v>
       </c>
@@ -3510,10 +3518,10 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="74"/>
+      <c r="A113" s="75"/>
       <c r="B113" s="76"/>
-      <c r="C113" s="80"/>
-      <c r="D113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="75"/>
       <c r="E113" s="20" t="s">
         <v>5</v>
       </c>
@@ -3528,12 +3536,12 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="74"/>
+      <c r="A114" s="75"/>
       <c r="B114" s="76"/>
-      <c r="C114" s="80">
+      <c r="C114" s="77">
         <v>500</v>
       </c>
-      <c r="D114" s="74" t="s">
+      <c r="D114" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="20" t="s">
@@ -3550,10 +3558,10 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="74"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="76"/>
-      <c r="C115" s="80"/>
-      <c r="D115" s="74"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="75"/>
       <c r="E115" s="20" t="s">
         <v>9</v>
       </c>
@@ -3568,10 +3576,10 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="74"/>
+      <c r="A116" s="75"/>
       <c r="B116" s="76"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="74"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="75"/>
       <c r="E116" s="20" t="s">
         <v>16</v>
       </c>
@@ -3586,10 +3594,10 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="74"/>
+      <c r="A117" s="75"/>
       <c r="B117" s="76"/>
-      <c r="C117" s="80"/>
-      <c r="D117" s="74"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="75"/>
       <c r="E117" s="20" t="s">
         <v>5</v>
       </c>
@@ -3604,12 +3612,12 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="74"/>
+      <c r="A118" s="75"/>
       <c r="B118" s="76"/>
-      <c r="C118" s="80">
+      <c r="C118" s="77">
         <v>750</v>
       </c>
-      <c r="D118" s="74" t="s">
+      <c r="D118" s="75" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="20" t="s">
@@ -3626,10 +3634,10 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="74"/>
+      <c r="A119" s="75"/>
       <c r="B119" s="76"/>
-      <c r="C119" s="80"/>
-      <c r="D119" s="74"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="75"/>
       <c r="E119" s="20" t="s">
         <v>9</v>
       </c>
@@ -3644,10 +3652,10 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="74"/>
+      <c r="A120" s="75"/>
       <c r="B120" s="76"/>
-      <c r="C120" s="80"/>
-      <c r="D120" s="74"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="75"/>
       <c r="E120" s="20" t="s">
         <v>16</v>
       </c>
@@ -3662,10 +3670,10 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="74"/>
+      <c r="A121" s="75"/>
       <c r="B121" s="76"/>
-      <c r="C121" s="80"/>
-      <c r="D121" s="74"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="75"/>
       <c r="E121" s="20" t="s">
         <v>5</v>
       </c>
@@ -3706,17 +3714,17 @@
       </c>
       <c r="B124" s="76"/>
       <c r="C124" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D124" s="76"/>
       <c r="E124" s="76" t="s">
         <v>1</v>
       </c>
       <c r="F124" s="76"/>
-      <c r="G124" s="70" t="s">
+      <c r="G124" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="70"/>
+      <c r="H124" s="79"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="76"/>
@@ -3736,7 +3744,7 @@
       <c r="A126" s="76">
         <v>10</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="21">
@@ -3745,10 +3753,10 @@
       <c r="D126" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="71" t="s">
+      <c r="E126" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="F126" s="71"/>
+      <c r="F126" s="78"/>
       <c r="G126" s="42">
         <v>0.99750000000000005</v>
       </c>
@@ -3758,17 +3766,17 @@
     </row>
     <row r="127" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A127" s="76"/>
-      <c r="B127" s="74"/>
+      <c r="B127" s="75"/>
       <c r="C127" s="21">
         <v>5</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="71" t="s">
+      <c r="E127" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="F127" s="71"/>
+      <c r="F127" s="78"/>
       <c r="G127" s="42">
         <v>4.9954999999999998</v>
       </c>
@@ -3778,17 +3786,17 @@
     </row>
     <row r="128" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A128" s="76"/>
-      <c r="B128" s="74"/>
+      <c r="B128" s="75"/>
       <c r="C128" s="21">
         <v>10</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="71" t="s">
+      <c r="E128" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="F128" s="71"/>
+      <c r="F128" s="78"/>
       <c r="G128" s="42">
         <v>9.9930000000000003</v>
       </c>
@@ -3800,7 +3808,7 @@
       <c r="A129" s="76">
         <v>100</v>
       </c>
-      <c r="B129" s="74" t="s">
+      <c r="B129" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="21">
@@ -3809,10 +3817,10 @@
       <c r="D129" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="71" t="s">
+      <c r="E129" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="F129" s="71"/>
+      <c r="F129" s="78"/>
       <c r="G129" s="42">
         <v>9.99</v>
       </c>
@@ -3822,17 +3830,17 @@
     </row>
     <row r="130" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A130" s="76"/>
-      <c r="B130" s="74"/>
+      <c r="B130" s="75"/>
       <c r="C130" s="21">
         <v>50</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E130" s="71" t="s">
+      <c r="E130" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="F130" s="71"/>
+      <c r="F130" s="78"/>
       <c r="G130" s="42">
         <v>49.97</v>
       </c>
@@ -3842,17 +3850,17 @@
     </row>
     <row r="131" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A131" s="76"/>
-      <c r="B131" s="74"/>
+      <c r="B131" s="75"/>
       <c r="C131" s="21">
         <v>100</v>
       </c>
       <c r="D131" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="71" t="s">
+      <c r="E131" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="F131" s="71"/>
+      <c r="F131" s="78"/>
       <c r="G131" s="42">
         <v>99.944999999999993</v>
       </c>
@@ -3861,10 +3869,10 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="74">
+      <c r="A132" s="75">
         <v>1</v>
       </c>
-      <c r="B132" s="74" t="s">
+      <c r="B132" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="21">
@@ -3873,10 +3881,10 @@
       <c r="D132" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="71" t="s">
+      <c r="E132" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="F132" s="71"/>
+      <c r="F132" s="78"/>
       <c r="G132" s="42">
         <v>9.98E-2</v>
       </c>
@@ -3885,18 +3893,18 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="74"/>
-      <c r="B133" s="74"/>
+      <c r="A133" s="75"/>
+      <c r="B133" s="75"/>
       <c r="C133" s="21">
         <v>0.5</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="71" t="s">
+      <c r="E133" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="F133" s="71"/>
+      <c r="F133" s="78"/>
       <c r="G133" s="42">
         <v>0.49940000000000001</v>
       </c>
@@ -3905,18 +3913,18 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="74"/>
-      <c r="B134" s="74"/>
+      <c r="A134" s="75"/>
+      <c r="B134" s="75"/>
       <c r="C134" s="21">
         <v>1</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E134" s="71" t="s">
+      <c r="E134" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F134" s="71"/>
+      <c r="F134" s="78"/>
       <c r="G134" s="42">
         <v>0.99890000000000001</v>
       </c>
@@ -3925,10 +3933,10 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="74">
+      <c r="A135" s="75">
         <v>3</v>
       </c>
-      <c r="B135" s="74" t="s">
+      <c r="B135" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="21">
@@ -3937,10 +3945,10 @@
       <c r="D135" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="71" t="s">
+      <c r="E135" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="F135" s="71"/>
+      <c r="F135" s="78"/>
       <c r="G135" s="42">
         <v>0.29903999999999997</v>
       </c>
@@ -3949,18 +3957,18 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="74"/>
-      <c r="B136" s="74"/>
+      <c r="A136" s="75"/>
+      <c r="B136" s="75"/>
       <c r="C136" s="21">
         <v>1</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="71" t="s">
+      <c r="E136" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="F136" s="71"/>
+      <c r="F136" s="78"/>
       <c r="G136" s="42">
         <v>0.99819999999999998</v>
       </c>
@@ -3969,18 +3977,18 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="74"/>
-      <c r="B137" s="74"/>
+      <c r="A137" s="75"/>
+      <c r="B137" s="75"/>
       <c r="C137" s="21">
         <v>2.5</v>
       </c>
       <c r="D137" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="71" t="s">
+      <c r="E137" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="F137" s="71"/>
+      <c r="F137" s="78"/>
       <c r="G137" s="42">
         <v>2.4964</v>
       </c>
@@ -4011,7 +4019,7 @@
       </c>
       <c r="B140" s="76"/>
       <c r="C140" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D140" s="76"/>
       <c r="E140" s="76" t="s">
@@ -4020,10 +4028,10 @@
       <c r="F140" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="70" t="s">
+      <c r="G140" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="70"/>
+      <c r="H140" s="79"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="76"/>
@@ -4043,13 +4051,13 @@
       <c r="A142" s="76">
         <v>1</v>
       </c>
-      <c r="B142" s="74" t="s">
+      <c r="B142" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="74">
+      <c r="C142" s="75">
         <v>0.1</v>
       </c>
-      <c r="D142" s="74" t="s">
+      <c r="D142" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E142" s="23" t="s">
@@ -4067,43 +4075,43 @@
     </row>
     <row r="143" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A143" s="76"/>
-      <c r="B143" s="74"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
+      <c r="B143" s="75"/>
+      <c r="C143" s="75"/>
+      <c r="D143" s="75"/>
       <c r="E143" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F143" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="G143" s="70">
+      <c r="G143" s="79">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="H143" s="70">
+      <c r="H143" s="79">
         <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A144" s="76"/>
-      <c r="B144" s="74"/>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
+      <c r="B144" s="75"/>
+      <c r="C144" s="75"/>
+      <c r="D144" s="75"/>
       <c r="E144" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F144" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
     </row>
     <row r="145" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A145" s="76"/>
-      <c r="B145" s="74"/>
-      <c r="C145" s="74">
+      <c r="B145" s="75"/>
+      <c r="C145" s="75">
         <v>0.5</v>
       </c>
-      <c r="D145" s="74" t="s">
+      <c r="D145" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E145" s="23" t="s">
@@ -4121,43 +4129,43 @@
     </row>
     <row r="146" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A146" s="76"/>
-      <c r="B146" s="74"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="75"/>
       <c r="E146" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F146" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="G146" s="70">
+      <c r="G146" s="79">
         <v>0.49909999999999999</v>
       </c>
-      <c r="H146" s="70">
+      <c r="H146" s="79">
         <v>0.50090000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A147" s="76"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
       <c r="E147" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F147" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
+      <c r="G147" s="79"/>
+      <c r="H147" s="79"/>
     </row>
     <row r="148" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A148" s="76"/>
-      <c r="B148" s="74"/>
-      <c r="C148" s="80">
+      <c r="B148" s="75"/>
+      <c r="C148" s="77">
         <v>1</v>
       </c>
-      <c r="D148" s="74" t="s">
+      <c r="D148" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E148" s="23" t="s">
@@ -4175,47 +4183,47 @@
     </row>
     <row r="149" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A149" s="76"/>
-      <c r="B149" s="74"/>
-      <c r="C149" s="80"/>
-      <c r="D149" s="74"/>
+      <c r="B149" s="75"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="75"/>
       <c r="E149" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="G149" s="70">
+      <c r="G149" s="79">
         <v>0.99860000000000004</v>
       </c>
-      <c r="H149" s="70">
+      <c r="H149" s="79">
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A150" s="76"/>
-      <c r="B150" s="74"/>
-      <c r="C150" s="80"/>
-      <c r="D150" s="74"/>
+      <c r="B150" s="75"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="75"/>
       <c r="E150" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F150" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G150" s="70"/>
-      <c r="H150" s="70"/>
+      <c r="G150" s="79"/>
+      <c r="H150" s="79"/>
     </row>
     <row r="151" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A151" s="76">
         <v>3</v>
       </c>
-      <c r="B151" s="74" t="s">
+      <c r="B151" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="80">
+      <c r="C151" s="77">
         <v>0.3</v>
       </c>
-      <c r="D151" s="74" t="s">
+      <c r="D151" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E151" s="23" t="s">
@@ -4233,43 +4241,43 @@
     </row>
     <row r="152" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A152" s="76"/>
-      <c r="B152" s="74"/>
-      <c r="C152" s="80"/>
-      <c r="D152" s="74"/>
+      <c r="B152" s="75"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="75"/>
       <c r="E152" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="G152" s="70">
+      <c r="G152" s="79">
         <v>0.29775000000000001</v>
       </c>
-      <c r="H152" s="70">
+      <c r="H152" s="79">
         <v>0.30225000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A153" s="76"/>
-      <c r="B153" s="74"/>
-      <c r="C153" s="80"/>
-      <c r="D153" s="74"/>
+      <c r="B153" s="75"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="75"/>
       <c r="E153" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F153" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="G153" s="70"/>
-      <c r="H153" s="70"/>
+      <c r="G153" s="79"/>
+      <c r="H153" s="79"/>
     </row>
     <row r="154" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A154" s="76"/>
-      <c r="B154" s="74"/>
-      <c r="C154" s="80">
+      <c r="B154" s="75"/>
+      <c r="C154" s="77">
         <v>1</v>
       </c>
-      <c r="D154" s="74" t="s">
+      <c r="D154" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E154" s="23" t="s">
@@ -4287,43 +4295,43 @@
     </row>
     <row r="155" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A155" s="76"/>
-      <c r="B155" s="74"/>
-      <c r="C155" s="80"/>
-      <c r="D155" s="74"/>
+      <c r="B155" s="75"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="75"/>
       <c r="E155" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="G155" s="70">
+      <c r="G155" s="79">
         <v>0.99790000000000001</v>
       </c>
-      <c r="H155" s="70">
+      <c r="H155" s="79">
         <v>1.0021</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A156" s="76"/>
-      <c r="B156" s="74"/>
-      <c r="C156" s="80"/>
-      <c r="D156" s="74"/>
+      <c r="B156" s="75"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="75"/>
       <c r="E156" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F156" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="G156" s="70"/>
-      <c r="H156" s="70"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="79"/>
     </row>
     <row r="157" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A157" s="76"/>
-      <c r="B157" s="74"/>
-      <c r="C157" s="80">
+      <c r="B157" s="75"/>
+      <c r="C157" s="77">
         <v>2.5</v>
       </c>
-      <c r="D157" s="74" t="s">
+      <c r="D157" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E157" s="23" t="s">
@@ -4341,35 +4349,35 @@
     </row>
     <row r="158" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A158" s="76"/>
-      <c r="B158" s="74"/>
-      <c r="C158" s="80"/>
-      <c r="D158" s="74"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="77"/>
+      <c r="D158" s="75"/>
       <c r="E158" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="G158" s="70">
+      <c r="G158" s="79">
         <v>2.4944500000000001</v>
       </c>
-      <c r="H158" s="70">
+      <c r="H158" s="79">
         <v>2.5055499999999999</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A159" s="76"/>
-      <c r="B159" s="74"/>
-      <c r="C159" s="80"/>
-      <c r="D159" s="74"/>
+      <c r="B159" s="75"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="75"/>
       <c r="E159" s="43" t="s">
         <v>20</v>
       </c>
       <c r="F159" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G159" s="70"/>
-      <c r="H159" s="70"/>
+      <c r="G159" s="79"/>
+      <c r="H159" s="79"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
@@ -4401,17 +4409,17 @@
       </c>
       <c r="B163" s="76"/>
       <c r="C163" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D163" s="76"/>
       <c r="E163" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="76"/>
-      <c r="G163" s="70" t="s">
+      <c r="G163" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H163" s="70"/>
+      <c r="H163" s="79"/>
     </row>
     <row r="164" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="76"/>
@@ -4431,7 +4439,7 @@
       <c r="A165" s="76">
         <v>100</v>
       </c>
-      <c r="B165" s="74" t="s">
+      <c r="B165" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="21">
@@ -4440,10 +4448,10 @@
       <c r="D165" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E165" s="71" t="s">
+      <c r="E165" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="F165" s="71"/>
+      <c r="F165" s="78"/>
       <c r="G165" s="42">
         <v>9.9949999999999992</v>
       </c>
@@ -4453,17 +4461,17 @@
     </row>
     <row r="166" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A166" s="76"/>
-      <c r="B166" s="74"/>
+      <c r="B166" s="75"/>
       <c r="C166" s="21">
         <v>50</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E166" s="71" t="s">
+      <c r="E166" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="F166" s="71"/>
+      <c r="F166" s="78"/>
       <c r="G166" s="42">
         <v>49.991</v>
       </c>
@@ -4473,17 +4481,17 @@
     </row>
     <row r="167" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A167" s="76"/>
-      <c r="B167" s="74"/>
+      <c r="B167" s="75"/>
       <c r="C167" s="21">
         <v>100</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="71" t="s">
+      <c r="E167" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="F167" s="71"/>
+      <c r="F167" s="78"/>
       <c r="G167" s="42">
         <v>99.986000000000004</v>
       </c>
@@ -4495,7 +4503,7 @@
       <c r="A168" s="76">
         <v>1</v>
       </c>
-      <c r="B168" s="74" t="s">
+      <c r="B168" s="75" t="s">
         <v>12</v>
       </c>
       <c r="C168" s="44">
@@ -4504,10 +4512,10 @@
       <c r="D168" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E168" s="71" t="s">
+      <c r="E168" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="F168" s="71"/>
+      <c r="F168" s="78"/>
       <c r="G168" s="42">
         <v>9.9979999999999999E-2</v>
       </c>
@@ -4517,17 +4525,17 @@
     </row>
     <row r="169" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A169" s="76"/>
-      <c r="B169" s="74"/>
+      <c r="B169" s="75"/>
       <c r="C169" s="21">
         <v>0.5</v>
       </c>
       <c r="D169" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E169" s="71" t="s">
+      <c r="E169" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="F169" s="71"/>
+      <c r="F169" s="78"/>
       <c r="G169" s="42">
         <v>0.49994</v>
       </c>
@@ -4537,17 +4545,17 @@
     </row>
     <row r="170" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A170" s="76"/>
-      <c r="B170" s="74"/>
+      <c r="B170" s="75"/>
       <c r="C170" s="21">
         <v>1</v>
       </c>
       <c r="D170" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E170" s="71" t="s">
+      <c r="E170" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="F170" s="71"/>
+      <c r="F170" s="78"/>
       <c r="G170" s="42">
         <v>0.99988999999999995</v>
       </c>
@@ -4573,17 +4581,17 @@
       </c>
       <c r="B172" s="76"/>
       <c r="C172" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D172" s="76"/>
       <c r="E172" s="76" t="s">
         <v>10</v>
       </c>
       <c r="F172" s="76"/>
-      <c r="G172" s="70" t="s">
+      <c r="G172" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H172" s="70"/>
+      <c r="H172" s="79"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="76"/>
@@ -4600,10 +4608,10 @@
       </c>
     </row>
     <row r="174" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="74">
+      <c r="A174" s="75">
         <v>10</v>
       </c>
-      <c r="B174" s="74" t="s">
+      <c r="B174" s="75" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="44">
@@ -4612,10 +4620,10 @@
       <c r="D174" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E174" s="71" t="s">
+      <c r="E174" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="F174" s="71"/>
+      <c r="F174" s="78"/>
       <c r="G174" s="42">
         <v>0.99980000000000002</v>
       </c>
@@ -4624,18 +4632,18 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="74"/>
-      <c r="B175" s="74"/>
+      <c r="A175" s="75"/>
+      <c r="B175" s="75"/>
       <c r="C175" s="21">
         <v>5</v>
       </c>
       <c r="D175" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E175" s="71" t="s">
+      <c r="E175" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="F175" s="71"/>
+      <c r="F175" s="78"/>
       <c r="G175" s="42">
         <v>4.9993999999999996</v>
       </c>
@@ -4644,18 +4652,18 @@
       </c>
     </row>
     <row r="176" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="74"/>
-      <c r="B176" s="74"/>
+      <c r="A176" s="75"/>
+      <c r="B176" s="75"/>
       <c r="C176" s="21">
         <v>10</v>
       </c>
       <c r="D176" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E176" s="71" t="s">
+      <c r="E176" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="F176" s="71"/>
+      <c r="F176" s="78"/>
       <c r="G176" s="42">
         <v>9.9989000000000008</v>
       </c>
@@ -4664,10 +4672,10 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="74">
+      <c r="A177" s="75">
         <v>100</v>
       </c>
-      <c r="B177" s="74" t="s">
+      <c r="B177" s="75" t="s">
         <v>12</v>
       </c>
       <c r="C177" s="21">
@@ -4676,10 +4684,10 @@
       <c r="D177" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E177" s="71" t="s">
+      <c r="E177" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="F177" s="71"/>
+      <c r="F177" s="78"/>
       <c r="G177" s="42">
         <v>9.9979999999999993</v>
       </c>
@@ -4688,18 +4696,18 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="74"/>
-      <c r="B178" s="74"/>
+      <c r="A178" s="75"/>
+      <c r="B178" s="75"/>
       <c r="C178" s="21">
         <v>50</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E178" s="71" t="s">
+      <c r="E178" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="F178" s="71"/>
+      <c r="F178" s="78"/>
       <c r="G178" s="42">
         <v>49.994</v>
       </c>
@@ -4708,18 +4716,18 @@
       </c>
     </row>
     <row r="179" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="74"/>
-      <c r="B179" s="74"/>
+      <c r="A179" s="75"/>
+      <c r="B179" s="75"/>
       <c r="C179" s="21">
         <v>100</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E179" s="71" t="s">
+      <c r="E179" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="F179" s="71"/>
+      <c r="F179" s="78"/>
       <c r="G179" s="42">
         <v>99.989000000000004</v>
       </c>
@@ -4731,7 +4739,7 @@
       <c r="A180" s="76">
         <v>1</v>
       </c>
-      <c r="B180" s="74" t="s">
+      <c r="B180" s="75" t="s">
         <v>13</v>
       </c>
       <c r="C180" s="21">
@@ -4740,10 +4748,10 @@
       <c r="D180" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E180" s="71" t="s">
+      <c r="E180" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="F180" s="71"/>
+      <c r="F180" s="78"/>
       <c r="G180" s="42">
         <v>9.9979999999999999E-2</v>
       </c>
@@ -4752,18 +4760,18 @@
       </c>
     </row>
     <row r="181" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="74"/>
-      <c r="B181" s="74"/>
+      <c r="A181" s="75"/>
+      <c r="B181" s="75"/>
       <c r="C181" s="21">
         <v>0.5</v>
       </c>
       <c r="D181" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E181" s="71" t="s">
+      <c r="E181" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="F181" s="71"/>
+      <c r="F181" s="78"/>
       <c r="G181" s="42">
         <v>0.49994</v>
       </c>
@@ -4772,18 +4780,18 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="73"/>
-      <c r="B182" s="73"/>
+      <c r="A182" s="67"/>
+      <c r="B182" s="67"/>
       <c r="C182" s="44">
         <v>1</v>
       </c>
       <c r="D182" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E182" s="71" t="s">
+      <c r="E182" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="F182" s="71"/>
+      <c r="F182" s="78"/>
       <c r="G182" s="42">
         <v>0.99988999999999995</v>
       </c>
@@ -4792,10 +4800,10 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="74">
+      <c r="A183" s="75">
         <v>10</v>
       </c>
-      <c r="B183" s="74" t="s">
+      <c r="B183" s="75" t="s">
         <v>13</v>
       </c>
       <c r="C183" s="44">
@@ -4804,10 +4812,10 @@
       <c r="D183" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E183" s="71" t="s">
+      <c r="E183" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="F183" s="71"/>
+      <c r="F183" s="78"/>
       <c r="G183" s="42">
         <v>0.99950000000000006</v>
       </c>
@@ -4816,18 +4824,18 @@
       </c>
     </row>
     <row r="184" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="74"/>
-      <c r="B184" s="74"/>
+      <c r="A184" s="75"/>
+      <c r="B184" s="75"/>
       <c r="C184" s="44">
         <v>5</v>
       </c>
       <c r="D184" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="71" t="s">
+      <c r="E184" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="F184" s="71"/>
+      <c r="F184" s="78"/>
       <c r="G184" s="42">
         <v>4.9978999999999996</v>
       </c>
@@ -4836,18 +4844,18 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="74"/>
-      <c r="B185" s="74"/>
+      <c r="A185" s="75"/>
+      <c r="B185" s="75"/>
       <c r="C185" s="44">
         <v>10</v>
       </c>
       <c r="D185" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E185" s="71" t="s">
+      <c r="E185" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="F185" s="71"/>
+      <c r="F185" s="78"/>
       <c r="G185" s="42">
         <v>9.9959000000000007</v>
       </c>
@@ -4856,10 +4864,10 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="74">
+      <c r="A186" s="75">
         <v>100</v>
       </c>
-      <c r="B186" s="74" t="s">
+      <c r="B186" s="75" t="s">
         <v>13</v>
       </c>
       <c r="C186" s="44">
@@ -4868,10 +4876,10 @@
       <c r="D186" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E186" s="71" t="s">
+      <c r="E186" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="F186" s="71"/>
+      <c r="F186" s="78"/>
       <c r="G186" s="42">
         <v>9.91</v>
       </c>
@@ -4880,18 +4888,18 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="74"/>
-      <c r="B187" s="74"/>
+      <c r="A187" s="75"/>
+      <c r="B187" s="75"/>
       <c r="C187" s="44">
         <v>50</v>
       </c>
       <c r="D187" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E187" s="71" t="s">
+      <c r="E187" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="F187" s="71"/>
+      <c r="F187" s="78"/>
       <c r="G187" s="42">
         <v>49.59</v>
       </c>
@@ -4900,18 +4908,18 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="74"/>
-      <c r="B188" s="74"/>
+      <c r="A188" s="75"/>
+      <c r="B188" s="75"/>
       <c r="C188" s="44">
         <v>100</v>
       </c>
       <c r="D188" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="71" t="s">
+      <c r="E188" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="F188" s="71"/>
+      <c r="F188" s="78"/>
       <c r="G188" s="42">
         <v>99.19</v>
       </c>
@@ -4942,23 +4950,23 @@
       <c r="H190" s="30"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="77" t="s">
+      <c r="A191" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B191" s="77"/>
+      <c r="B191" s="85"/>
       <c r="C191" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D191" s="76"/>
-      <c r="E191" s="78" t="s">
+      <c r="E191" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="F191" s="78"/>
+      <c r="F191" s="86"/>
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="77"/>
-      <c r="B192" s="77"/>
+      <c r="A192" s="85"/>
+      <c r="B192" s="85"/>
       <c r="C192" s="76"/>
       <c r="D192" s="76"/>
       <c r="E192" s="52" t="s">
@@ -4976,10 +4984,10 @@
       <c r="B193" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="C193" s="75" t="s">
+      <c r="C193" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D193" s="75"/>
+      <c r="D193" s="80"/>
       <c r="E193" s="51">
         <v>9.9949999999999992</v>
       </c>
@@ -4992,13 +5000,13 @@
       <c r="A194" s="50">
         <v>50</v>
       </c>
-      <c r="B194" s="65" t="s">
+      <c r="B194" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="C194" s="75" t="s">
+      <c r="C194" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="D194" s="75"/>
+      <c r="D194" s="80"/>
       <c r="E194" s="51">
         <v>49.984999999999999</v>
       </c>
@@ -5011,11 +5019,11 @@
       <c r="A195" s="50">
         <v>300</v>
       </c>
-      <c r="B195" s="66"/>
-      <c r="C195" s="75" t="s">
+      <c r="B195" s="88"/>
+      <c r="C195" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="D195" s="75"/>
+      <c r="D195" s="80"/>
       <c r="E195" s="51">
         <v>299.97000000000003</v>
       </c>
@@ -5030,12 +5038,12 @@
       <c r="H196" s="30"/>
     </row>
     <row r="197" spans="1:8" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="67" t="s">
+      <c r="A197" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197" s="83"/>
+      <c r="C197" s="63" t="s">
         <v>218</v>
-      </c>
-      <c r="B197" s="67"/>
-      <c r="C197" s="63" t="s">
-        <v>219</v>
       </c>
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
@@ -5044,32 +5052,32 @@
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="67" t="s">
+      <c r="A198" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="B198" s="67"/>
+      <c r="B198" s="83"/>
       <c r="C198" s="46"/>
       <c r="D198" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E198" s="68" t="s">
+      <c r="E198" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F198" s="69"/>
+      <c r="F198" s="90"/>
       <c r="G198" s="19" t="s">
         <v>66</v>
       </c>
       <c r="H198" s="48"/>
     </row>
     <row r="199" spans="1:8" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="67" t="s">
+      <c r="A199" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B199" s="67"/>
-      <c r="C199" s="72" t="s">
+      <c r="B199" s="83"/>
+      <c r="C199" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="D199" s="72"/>
+      <c r="D199" s="84"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -5077,62 +5085,151 @@
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="B71:B85"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A98:A109"/>
-    <mergeCell ref="B98:B109"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="A86:A97"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="H149:H150"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="A151:A159"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="A191:B192"/>
+    <mergeCell ref="C191:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B70"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A110:A121"/>
+    <mergeCell ref="B110:B121"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E124:F125"/>
+    <mergeCell ref="A71:A85"/>
+    <mergeCell ref="B151:B159"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B142:B150"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A142:A150"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G172:H172"/>
     <mergeCell ref="E186:F186"/>
     <mergeCell ref="E188:F188"/>
     <mergeCell ref="E187:F187"/>
@@ -5157,151 +5254,62 @@
     <mergeCell ref="C148:C150"/>
     <mergeCell ref="D148:D150"/>
     <mergeCell ref="C151:C153"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A142:A150"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B151:B159"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B142:B150"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B70"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A110:A121"/>
-    <mergeCell ref="B110:B121"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E124:F125"/>
-    <mergeCell ref="A71:A85"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="A191:B192"/>
-    <mergeCell ref="C191:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="H158:H159"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="A151:A159"/>
+    <mergeCell ref="B71:B85"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.65625" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/Shablon/34401A_gost.xlsx
+++ b/Shablon/34401A_gost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -763,7 +763,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -814,29 +814,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -851,13 +828,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -866,6 +836,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -993,9 +969,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1009,16 +985,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1027,7 +997,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1049,17 +1018,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1088,9 +1048,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,53 +1069,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1169,86 +1089,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1558,7 +1512,7 @@
   <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1568,87 +1522,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="str">
+      <c r="A7" s="69" t="str">
         <f>"Протокол поверки № 10/"&amp;C199&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -1661,112 +1615,112 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="75" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="75" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1774,141 +1728,141 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="62"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="58"/>
+      <c r="F19" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="62"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67" t="s">
+      <c r="E20" s="71"/>
+      <c r="F20" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="62"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67" t="s">
+      <c r="E21" s="71"/>
+      <c r="F21" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="62"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67" t="s">
+      <c r="E22" s="71"/>
+      <c r="F22" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="62"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="67" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="62"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="67" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1921,3163 +1875,3163 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76" t="s">
+      <c r="B32" s="57"/>
+      <c r="C32" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76" t="s">
+      <c r="D32" s="57"/>
+      <c r="E32" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76" t="s">
+      <c r="F32" s="57"/>
+      <c r="G32" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="76"/>
+      <c r="H32" s="57"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="20" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="76">
+      <c r="A34" s="57">
         <v>100</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>10</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="80"/>
-      <c r="G34" s="23">
+      <c r="F34" s="76"/>
+      <c r="G34" s="49">
         <v>9.9960000000000004</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="49">
         <v>10.004</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="21">
+      <c r="A35" s="57"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="17">
         <v>50</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="23">
+      <c r="F35" s="76"/>
+      <c r="G35" s="49">
         <v>49.994</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="49">
         <v>50.006</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="21">
+      <c r="A36" s="57"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="17">
         <v>100</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="53">
+      <c r="F36" s="76"/>
+      <c r="G36" s="49">
         <v>99.991500000000002</v>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="49">
         <v>100.0085</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="21">
+      <c r="A37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="17">
         <v>-100</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="53">
+      <c r="F37" s="76"/>
+      <c r="G37" s="49">
         <v>-100.0085</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="49">
         <v>-99.991500000000002</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="76">
+      <c r="A38" s="57">
         <v>1</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="17">
         <v>0.1</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="80" t="s">
+      <c r="E38" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="23">
+      <c r="F38" s="76"/>
+      <c r="G38" s="49">
         <v>9.9988999999999995E-2</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="49">
         <v>0.1000011</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="21">
+      <c r="A39" s="57"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="17">
         <v>0.5</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="80"/>
-      <c r="G39" s="23">
+      <c r="F39" s="76"/>
+      <c r="G39" s="49">
         <v>0.499973</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="49">
         <v>0.500027</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="21">
+      <c r="A40" s="57"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="17">
         <v>1</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="80" t="s">
+      <c r="E40" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="80"/>
-      <c r="G40" s="53">
+      <c r="F40" s="76"/>
+      <c r="G40" s="49">
         <v>0.99995299999999998</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="49">
         <v>1.0000469999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="21">
+      <c r="A41" s="57"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="17">
         <v>-1</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="53">
+      <c r="F41" s="76"/>
+      <c r="G41" s="49">
         <v>-1.0000469999999999</v>
       </c>
-      <c r="H41" s="53">
+      <c r="H41" s="49">
         <v>-0.99995299999999998</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="75">
+      <c r="A42" s="59">
         <v>10</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="17">
         <v>1</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="80"/>
-      <c r="G42" s="23">
+      <c r="F42" s="76"/>
+      <c r="G42" s="49">
         <v>0.999915</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="49">
         <v>1.0000849999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="21">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="17">
         <v>5</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="80" t="s">
+      <c r="E43" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="23">
+      <c r="F43" s="76"/>
+      <c r="G43" s="49">
         <v>4.9997749999999996</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="49">
         <v>5.0002250000000004</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="21">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="17">
         <v>10</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="E44" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="53">
+      <c r="F44" s="76"/>
+      <c r="G44" s="49">
         <v>9.9995999999999992</v>
       </c>
-      <c r="H44" s="53">
+      <c r="H44" s="49">
         <v>10.000400000000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="21">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="17">
         <v>-10</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="53">
+      <c r="F45" s="76"/>
+      <c r="G45" s="49">
         <v>-10.000400000000001</v>
       </c>
-      <c r="H45" s="53">
+      <c r="H45" s="49">
         <v>-9.9995999999999992</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="75">
+      <c r="A46" s="59">
         <v>100</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="17">
         <v>10</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="80" t="s">
+      <c r="E46" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="80"/>
-      <c r="G46" s="23">
+      <c r="F46" s="76"/>
+      <c r="G46" s="49">
         <v>9.9995499999999993</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="49">
         <v>10.000450000000001</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="21">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="17">
         <v>50</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="80" t="s">
+      <c r="E47" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="80"/>
-      <c r="G47" s="23">
+      <c r="F47" s="76"/>
+      <c r="G47" s="49">
         <v>49.997149999999998</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="49">
         <v>50.002850000000002</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="21">
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="17">
         <v>100</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="F48" s="80"/>
-      <c r="G48" s="53">
+      <c r="F48" s="76"/>
+      <c r="G48" s="49">
         <v>99.994900000000001</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H48" s="49">
         <v>100.0051</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="21">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="17">
         <v>-100</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="80"/>
-      <c r="G49" s="53">
+      <c r="F49" s="76"/>
+      <c r="G49" s="49">
         <v>-100.0051</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H49" s="49">
         <v>-99.994900000000001</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="76">
+      <c r="A50" s="57">
         <v>1000</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="17">
         <v>100</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="80" t="s">
+      <c r="E50" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="80"/>
-      <c r="G50" s="23">
+      <c r="F50" s="76"/>
+      <c r="G50" s="49">
         <v>99.985500000000002</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="49">
         <v>100.0145</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="76"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="21">
+      <c r="A51" s="57"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="17">
         <v>500</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="80"/>
-      <c r="G51" s="23">
+      <c r="F51" s="76"/>
+      <c r="G51" s="49">
         <v>499.96749999999997</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="49">
         <v>500.03250000000003</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="76"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="21">
+      <c r="A52" s="57"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="17">
         <v>1000</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="80" t="s">
+      <c r="E52" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="53">
+      <c r="F52" s="76"/>
+      <c r="G52" s="49">
         <v>999.94500000000005</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H52" s="49">
         <v>1000.0549999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="21">
+      <c r="A53" s="57"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="17">
         <v>-1000</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="80" t="s">
+      <c r="E53" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="80"/>
-      <c r="G53" s="53">
+      <c r="F53" s="76"/>
+      <c r="G53" s="49">
         <v>-1000.0549999999999</v>
       </c>
-      <c r="H53" s="53">
+      <c r="H53" s="49">
         <v>-999.94500000000005</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76" t="s">
+      <c r="B55" s="57"/>
+      <c r="C55" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="76" t="s">
+      <c r="F55" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="81" t="s">
+      <c r="G55" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="81"/>
+      <c r="H55" s="65"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="76"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="35" t="s">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="76">
+      <c r="A57" s="57">
         <v>100</v>
       </c>
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="82">
+      <c r="C57" s="62">
         <v>10</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="49">
         <v>9.9250000000000007</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="49">
         <v>10.074999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="76"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="20" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="49">
         <v>9.9540000000000006</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="49">
         <v>10.045999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="76"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="20" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="49">
         <v>9.9380000000000006</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="49">
         <v>10.061999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="76"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="20" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="49">
         <v>9.86</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="49">
         <v>10.14</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="82">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="62">
         <v>50</v>
       </c>
-      <c r="D61" s="75" t="s">
+      <c r="D61" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="49">
         <v>49.784999999999997</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="49">
         <v>50.215000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="76"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="20" t="s">
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="49">
         <v>49.93</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="49">
         <v>50.07</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="76"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="20" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="49">
         <v>49.89</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="49">
         <v>50.11</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="76"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="20" t="s">
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="49">
         <v>49.62</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="49">
         <v>50.38</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="76"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="20" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="G65" s="36">
+      <c r="G65" s="29">
         <v>47.5</v>
       </c>
-      <c r="H65" s="36">
+      <c r="H65" s="29">
         <v>52.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="76"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="77">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="63">
         <v>100</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="G66" s="37">
+      <c r="G66" s="30">
         <v>99.61</v>
       </c>
-      <c r="H66" s="36">
+      <c r="H66" s="29">
         <v>100.39</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="76"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="20" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="G67" s="37">
+      <c r="G67" s="30">
         <v>99.9</v>
       </c>
-      <c r="H67" s="36">
+      <c r="H67" s="29">
         <v>100.1</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="76"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="20" t="s">
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F68" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="G68" s="37">
+      <c r="G68" s="30">
         <v>99.83</v>
       </c>
-      <c r="H68" s="36">
+      <c r="H68" s="29">
         <v>100.17</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="76"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="20" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="59" t="s">
+      <c r="F69" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="G69" s="37">
+      <c r="G69" s="30">
         <v>99.32</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69" s="29">
         <v>100.68</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="76"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="20" t="s">
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="59" t="s">
+      <c r="F70" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="37">
+      <c r="G70" s="30">
         <v>95.5</v>
       </c>
-      <c r="H70" s="36">
+      <c r="H70" s="29">
         <v>104.5</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="72">
+      <c r="A71" s="64">
         <v>1</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="73">
+      <c r="C71" s="66">
         <v>100</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="D71" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="E71" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="F71" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71" s="31">
         <v>99.35</v>
       </c>
-      <c r="H71" s="39">
+      <c r="H71" s="32">
         <v>100.65</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="20" t="s">
+      <c r="A72" s="64"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F72" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="31">
         <v>99.64</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H72" s="32">
         <v>100.36</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="72"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="20" t="s">
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G73" s="31">
         <v>99.38</v>
       </c>
-      <c r="H73" s="39">
+      <c r="H73" s="32">
         <v>100.62</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="72"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="20" t="s">
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="59" t="s">
+      <c r="F74" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="33">
         <v>98.6</v>
       </c>
-      <c r="H74" s="41">
+      <c r="H74" s="34">
         <v>101.4</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="72"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="20" t="s">
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="59" t="s">
+      <c r="F75" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G75" s="40">
+      <c r="G75" s="33">
         <v>91</v>
       </c>
-      <c r="H75" s="41">
+      <c r="H75" s="34">
         <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="73">
+      <c r="A76" s="64"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="66">
         <v>500</v>
       </c>
-      <c r="D76" s="74" t="s">
+      <c r="D76" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="59" t="s">
+      <c r="F76" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="G76" s="38">
+      <c r="G76" s="31">
         <v>497.95</v>
       </c>
-      <c r="H76" s="39">
+      <c r="H76" s="32">
         <v>502.05</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="72"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="20" t="s">
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="59" t="s">
+      <c r="F77" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="33">
         <v>499.4</v>
       </c>
-      <c r="H77" s="41">
+      <c r="H77" s="34">
         <v>500.6</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="20" t="s">
+      <c r="A78" s="64"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="59" t="s">
+      <c r="F78" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="33">
         <v>498.9</v>
       </c>
-      <c r="H78" s="41">
+      <c r="H78" s="34">
         <v>501.1</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="72"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="20" t="s">
+      <c r="A79" s="64"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="59" t="s">
+      <c r="F79" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="G79" s="40">
+      <c r="G79" s="33">
         <v>496.2</v>
       </c>
-      <c r="H79" s="41">
+      <c r="H79" s="34">
         <v>503.8</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="20" t="s">
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="59" t="s">
+      <c r="F80" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="G80" s="40">
+      <c r="G80" s="33">
         <v>475</v>
       </c>
-      <c r="H80" s="41">
+      <c r="H80" s="34">
         <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="73">
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="66">
         <v>1</v>
       </c>
-      <c r="D81" s="74" t="s">
+      <c r="D81" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="59" t="s">
+      <c r="F81" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="G81" s="38">
+      <c r="G81" s="31">
         <v>0.99619999999999997</v>
       </c>
-      <c r="H81" s="39">
+      <c r="H81" s="32">
         <v>1.0038</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="20" t="s">
+      <c r="A82" s="64"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="59" t="s">
+      <c r="F82" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="G82" s="38">
+      <c r="G82" s="31">
         <v>0.99909999999999999</v>
       </c>
-      <c r="H82" s="39">
+      <c r="H82" s="32">
         <v>1.0008999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="72"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="20" t="s">
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="59" t="s">
+      <c r="F83" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="G83" s="38">
+      <c r="G83" s="31">
         <v>0.99829999999999997</v>
       </c>
-      <c r="H83" s="39">
+      <c r="H83" s="32">
         <v>1.0017</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="72"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="20" t="s">
+      <c r="A84" s="64"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="59" t="s">
+      <c r="F84" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="G84" s="38">
+      <c r="G84" s="31">
         <v>0.99319999999999997</v>
       </c>
-      <c r="H84" s="39">
+      <c r="H84" s="32">
         <v>1.0067999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="72"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="20" t="s">
+      <c r="A85" s="64"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="59" t="s">
+      <c r="F85" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="G85" s="38">
+      <c r="G85" s="31">
         <v>0.95499999999999996</v>
       </c>
-      <c r="H85" s="38">
+      <c r="H85" s="31">
         <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="74">
+      <c r="A86" s="67">
         <v>10</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="77">
+      <c r="C86" s="63">
         <v>1</v>
       </c>
-      <c r="D86" s="75" t="s">
+      <c r="D86" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="35">
         <v>0.99350000000000005</v>
       </c>
-      <c r="H86" s="23">
+      <c r="H86" s="49">
         <v>1.0065</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="74"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="20" t="s">
+      <c r="A87" s="67"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="59" t="s">
+      <c r="F87" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="G87" s="42">
+      <c r="G87" s="35">
         <v>0.99639999999999995</v>
       </c>
-      <c r="H87" s="23">
+      <c r="H87" s="49">
         <v>1.0036</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="74"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="20" t="s">
+      <c r="A88" s="67"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="59" t="s">
+      <c r="F88" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="G88" s="42">
+      <c r="G88" s="35">
         <v>0.99380000000000002</v>
       </c>
-      <c r="H88" s="23">
+      <c r="H88" s="49">
         <v>1.0062</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="74"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="20" t="s">
+      <c r="A89" s="67"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="59" t="s">
+      <c r="F89" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="G89" s="42">
+      <c r="G89" s="35">
         <v>0.98599999999999999</v>
       </c>
-      <c r="H89" s="23">
+      <c r="H89" s="49">
         <v>1.014</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="74"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="77">
+      <c r="A90" s="67"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="63">
         <v>5</v>
       </c>
-      <c r="D90" s="75" t="s">
+      <c r="D90" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="59" t="s">
+      <c r="F90" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="G90" s="42">
+      <c r="G90" s="35">
         <v>4.9794999999999998</v>
       </c>
-      <c r="H90" s="23">
+      <c r="H90" s="49">
         <v>5.0205000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="74"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="20" t="s">
+      <c r="A91" s="67"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="59" t="s">
+      <c r="F91" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="G91" s="42">
+      <c r="G91" s="35">
         <v>4.9939999999999998</v>
       </c>
-      <c r="H91" s="23">
+      <c r="H91" s="49">
         <v>5.0060000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="74"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="77"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="20" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="59" t="s">
+      <c r="F92" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="G92" s="42">
+      <c r="G92" s="35">
         <v>4.9889999999999999</v>
       </c>
-      <c r="H92" s="23">
+      <c r="H92" s="49">
         <v>5.0110000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="74"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="75"/>
-      <c r="E93" s="20" t="s">
+      <c r="A93" s="67"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F93" s="59" t="s">
+      <c r="F93" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="G93" s="42">
+      <c r="G93" s="35">
         <v>4.9619999999999997</v>
       </c>
-      <c r="H93" s="23">
+      <c r="H93" s="49">
         <v>5.0380000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="74"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="77">
+      <c r="A94" s="67"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="63">
         <v>10</v>
       </c>
-      <c r="D94" s="75" t="s">
+      <c r="D94" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="59" t="s">
+      <c r="F94" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="G94" s="42">
+      <c r="G94" s="35">
         <v>9.9619999999999997</v>
       </c>
-      <c r="H94" s="23">
+      <c r="H94" s="49">
         <v>10.038</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="74"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="20" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="59" t="s">
+      <c r="F95" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="G95" s="42">
+      <c r="G95" s="35">
         <v>9.9909999999999997</v>
       </c>
-      <c r="H95" s="23">
+      <c r="H95" s="49">
         <v>10.009</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="74"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="20" t="s">
+      <c r="A96" s="67"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="59" t="s">
+      <c r="F96" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="35">
         <v>9.9830000000000005</v>
       </c>
-      <c r="H96" s="23">
+      <c r="H96" s="49">
         <v>10.016999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="74"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="20" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F97" s="59" t="s">
+      <c r="F97" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G97" s="42">
+      <c r="G97" s="35">
         <v>9.9320000000000004</v>
       </c>
-      <c r="H97" s="23">
+      <c r="H97" s="49">
         <v>10.068</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="75">
+      <c r="A98" s="59">
         <v>100</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="77">
+      <c r="C98" s="63">
         <v>10</v>
       </c>
-      <c r="D98" s="75" t="s">
+      <c r="D98" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="59" t="s">
+      <c r="F98" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="G98" s="42">
+      <c r="G98" s="35">
         <v>9.9350000000000005</v>
       </c>
-      <c r="H98" s="23">
+      <c r="H98" s="49">
         <v>10.065</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="20" t="s">
+      <c r="A99" s="59"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="59" t="s">
+      <c r="F99" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="G99" s="42">
+      <c r="G99" s="35">
         <v>9.9640000000000004</v>
       </c>
-      <c r="H99" s="23">
+      <c r="H99" s="49">
         <v>10.036</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="75"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="20" t="s">
+      <c r="A100" s="59"/>
+      <c r="B100" s="57"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="59" t="s">
+      <c r="F100" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="G100" s="42">
+      <c r="G100" s="35">
         <v>9.9380000000000006</v>
       </c>
-      <c r="H100" s="23">
+      <c r="H100" s="49">
         <v>10.061999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="75"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="75"/>
-      <c r="E101" s="20" t="s">
+      <c r="A101" s="59"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F101" s="59" t="s">
+      <c r="F101" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="G101" s="42">
+      <c r="G101" s="35">
         <v>9.86</v>
       </c>
-      <c r="H101" s="23">
+      <c r="H101" s="49">
         <v>10.14</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="75"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="77">
+      <c r="A102" s="59"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="63">
         <v>30</v>
       </c>
-      <c r="D102" s="75" t="s">
+      <c r="D102" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="59" t="s">
+      <c r="F102" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="G102" s="42">
+      <c r="G102" s="35">
         <v>29.795000000000002</v>
       </c>
-      <c r="H102" s="23">
+      <c r="H102" s="49">
         <v>30.204999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="75"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="20" t="s">
+      <c r="A103" s="59"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="59" t="s">
+      <c r="F103" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="G103" s="42">
+      <c r="G103" s="35">
         <v>29.94</v>
       </c>
-      <c r="H103" s="23">
+      <c r="H103" s="49">
         <v>30.06</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="75"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="20" t="s">
+      <c r="A104" s="59"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="59" t="s">
+      <c r="F104" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="G104" s="42">
+      <c r="G104" s="35">
         <v>29.89</v>
       </c>
-      <c r="H104" s="23">
+      <c r="H104" s="49">
         <v>30.11</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="75"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="77"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="20" t="s">
+      <c r="A105" s="59"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="59" t="s">
+      <c r="F105" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="G105" s="42">
+      <c r="G105" s="35">
         <v>29.62</v>
       </c>
-      <c r="H105" s="23">
+      <c r="H105" s="49">
         <v>30.38</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="75"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="77">
+      <c r="A106" s="59"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="63">
         <v>100</v>
       </c>
-      <c r="D106" s="75" t="s">
+      <c r="D106" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="F106" s="59" t="s">
+      <c r="F106" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="G106" s="42">
+      <c r="G106" s="35">
         <v>99.62</v>
       </c>
-      <c r="H106" s="23">
+      <c r="H106" s="49">
         <v>100.38</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="75"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="75"/>
-      <c r="E107" s="20" t="s">
+      <c r="A107" s="59"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F107" s="59" t="s">
+      <c r="F107" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="G107" s="38">
+      <c r="G107" s="31">
         <v>99.91</v>
       </c>
-      <c r="H107" s="23">
+      <c r="H107" s="49">
         <v>100.09</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="75"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="75"/>
-      <c r="E108" s="20" t="s">
+      <c r="A108" s="59"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F108" s="59" t="s">
+      <c r="F108" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="G108" s="38">
+      <c r="G108" s="31">
         <v>99.83</v>
       </c>
-      <c r="H108" s="23">
+      <c r="H108" s="49">
         <v>100.17</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="75"/>
-      <c r="B109" s="76"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="20" t="s">
+      <c r="A109" s="59"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F109" s="59" t="s">
+      <c r="F109" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="G109" s="38">
+      <c r="G109" s="31">
         <v>99.32</v>
       </c>
-      <c r="H109" s="23">
+      <c r="H109" s="49">
         <v>100.68</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="76">
+      <c r="A110" s="57">
         <v>750</v>
       </c>
-      <c r="B110" s="76" t="s">
+      <c r="B110" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="77">
+      <c r="C110" s="63">
         <v>100</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D110" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="F110" s="59" t="s">
+      <c r="F110" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G110" s="42">
+      <c r="G110" s="35">
         <v>99.424999999999997</v>
       </c>
-      <c r="H110" s="23">
+      <c r="H110" s="49">
         <v>100.575</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="76"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="75"/>
-      <c r="E111" s="20" t="s">
+      <c r="A111" s="57"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F111" s="59" t="s">
+      <c r="F111" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="G111" s="38">
+      <c r="G111" s="31">
         <v>99.715000000000003</v>
       </c>
-      <c r="H111" s="23">
+      <c r="H111" s="49">
         <v>100.285</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="76"/>
-      <c r="B112" s="76"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="75"/>
-      <c r="E112" s="20" t="s">
+      <c r="A112" s="57"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F112" s="59" t="s">
+      <c r="F112" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="G112" s="38">
+      <c r="G112" s="31">
         <v>99.504999999999995</v>
       </c>
-      <c r="H112" s="23">
+      <c r="H112" s="49">
         <v>100.495</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="75"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="75"/>
-      <c r="E113" s="20" t="s">
+      <c r="A113" s="59"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F113" s="59" t="s">
+      <c r="F113" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="G113" s="40">
+      <c r="G113" s="33">
         <v>98.8</v>
       </c>
-      <c r="H113" s="36">
+      <c r="H113" s="29">
         <v>101.2</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="75"/>
-      <c r="B114" s="76"/>
-      <c r="C114" s="77">
+      <c r="A114" s="59"/>
+      <c r="B114" s="57"/>
+      <c r="C114" s="63">
         <v>500</v>
       </c>
-      <c r="D114" s="75" t="s">
+      <c r="D114" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="F114" s="59" t="s">
+      <c r="F114" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="G114" s="42">
+      <c r="G114" s="35">
         <v>498.02499999999998</v>
       </c>
-      <c r="H114" s="23">
+      <c r="H114" s="49">
         <v>501.97500000000002</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="75"/>
-      <c r="B115" s="76"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="75"/>
-      <c r="E115" s="20" t="s">
+      <c r="A115" s="59"/>
+      <c r="B115" s="57"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F115" s="59" t="s">
+      <c r="F115" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="G115" s="38">
+      <c r="G115" s="31">
         <v>499.47500000000002</v>
       </c>
-      <c r="H115" s="23">
+      <c r="H115" s="49">
         <v>500.52499999999998</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="75"/>
-      <c r="B116" s="76"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="75"/>
-      <c r="E116" s="20" t="s">
+      <c r="A116" s="59"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="59" t="s">
+      <c r="F116" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="G116" s="38">
+      <c r="G116" s="31">
         <v>499.02499999999998</v>
       </c>
-      <c r="H116" s="23">
+      <c r="H116" s="49">
         <v>500.97500000000002</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="75"/>
-      <c r="B117" s="76"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="75"/>
-      <c r="E117" s="20" t="s">
+      <c r="A117" s="59"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F117" s="59" t="s">
+      <c r="F117" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="G117" s="37">
+      <c r="G117" s="30">
         <v>496.4</v>
       </c>
-      <c r="H117" s="36">
+      <c r="H117" s="29">
         <v>503.6</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="75"/>
-      <c r="B118" s="76"/>
-      <c r="C118" s="77">
+      <c r="A118" s="59"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="63">
         <v>750</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="F118" s="59" t="s">
+      <c r="F118" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="G118" s="42">
+      <c r="G118" s="35">
         <v>747.15</v>
       </c>
-      <c r="H118" s="23">
+      <c r="H118" s="49">
         <v>752.85</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="75"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="77"/>
-      <c r="D119" s="75"/>
-      <c r="E119" s="20" t="s">
+      <c r="A119" s="59"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="59" t="s">
+      <c r="F119" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="G119" s="38">
+      <c r="G119" s="31">
         <v>749.32500000000005</v>
       </c>
-      <c r="H119" s="23">
+      <c r="H119" s="49">
         <v>750.67499999999995</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="75"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="75"/>
-      <c r="E120" s="20" t="s">
+      <c r="A120" s="59"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="63"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="59" t="s">
+      <c r="F120" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="G120" s="38">
+      <c r="G120" s="31">
         <v>748.72500000000002</v>
       </c>
-      <c r="H120" s="23">
+      <c r="H120" s="49">
         <v>751.27499999999998</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="75"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="77"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="20" t="s">
+      <c r="A121" s="59"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F121" s="59" t="s">
+      <c r="F121" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="G121" s="37">
+      <c r="G121" s="30">
         <v>744.9</v>
       </c>
-      <c r="H121" s="36">
+      <c r="H121" s="29">
         <v>755.1</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="26"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="29"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="23"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="24"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="18"/>
     </row>
     <row r="124" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="76" t="s">
+      <c r="A124" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="76"/>
-      <c r="C124" s="76" t="s">
+      <c r="B124" s="57"/>
+      <c r="C124" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76" t="s">
+      <c r="D124" s="57"/>
+      <c r="E124" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F124" s="76"/>
-      <c r="G124" s="79" t="s">
+      <c r="F124" s="57"/>
+      <c r="G124" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H124" s="79"/>
+      <c r="H124" s="56"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="76"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="76"/>
-      <c r="D125" s="76"/>
-      <c r="E125" s="76"/>
-      <c r="F125" s="76"/>
-      <c r="G125" s="35" t="s">
+      <c r="A125" s="57"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="35" t="s">
+      <c r="H125" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="76">
+      <c r="A126" s="57">
         <v>10</v>
       </c>
-      <c r="B126" s="75" t="s">
+      <c r="B126" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="21">
+      <c r="C126" s="17">
         <v>1</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E126" s="78" t="s">
         <v>154</v>
       </c>
       <c r="F126" s="78"/>
-      <c r="G126" s="42">
+      <c r="G126" s="35">
         <v>0.99750000000000005</v>
       </c>
-      <c r="H126" s="23">
+      <c r="H126" s="49">
         <v>1.0024999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="76"/>
-      <c r="B127" s="75"/>
-      <c r="C127" s="21">
+      <c r="A127" s="57"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="17">
         <v>5</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E127" s="78" t="s">
         <v>155</v>
       </c>
       <c r="F127" s="78"/>
-      <c r="G127" s="42">
+      <c r="G127" s="35">
         <v>4.9954999999999998</v>
       </c>
-      <c r="H127" s="23">
+      <c r="H127" s="49">
         <v>5.0045000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="76"/>
-      <c r="B128" s="75"/>
-      <c r="C128" s="21">
+      <c r="A128" s="57"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="17">
         <v>10</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E128" s="78" t="s">
         <v>156</v>
       </c>
       <c r="F128" s="78"/>
-      <c r="G128" s="42">
+      <c r="G128" s="35">
         <v>9.9930000000000003</v>
       </c>
-      <c r="H128" s="23">
+      <c r="H128" s="49">
         <v>10.007</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="76">
+      <c r="A129" s="57">
         <v>100</v>
       </c>
-      <c r="B129" s="75" t="s">
+      <c r="B129" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="21">
+      <c r="C129" s="17">
         <v>10</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="78" t="s">
         <v>157</v>
       </c>
       <c r="F129" s="78"/>
-      <c r="G129" s="42">
+      <c r="G129" s="35">
         <v>9.99</v>
       </c>
-      <c r="H129" s="23">
+      <c r="H129" s="49">
         <v>10.01</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="76"/>
-      <c r="B130" s="75"/>
-      <c r="C130" s="21">
+      <c r="A130" s="57"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="17">
         <v>50</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E130" s="78" t="s">
         <v>158</v>
       </c>
       <c r="F130" s="78"/>
-      <c r="G130" s="42">
+      <c r="G130" s="35">
         <v>49.97</v>
       </c>
-      <c r="H130" s="23">
+      <c r="H130" s="49">
         <v>50.03</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="76"/>
-      <c r="B131" s="75"/>
-      <c r="C131" s="21">
+      <c r="A131" s="57"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="17">
         <v>100</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E131" s="78" t="s">
         <v>159</v>
       </c>
       <c r="F131" s="78"/>
-      <c r="G131" s="42">
+      <c r="G131" s="35">
         <v>99.944999999999993</v>
       </c>
-      <c r="H131" s="23">
+      <c r="H131" s="49">
         <v>100.05500000000001</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="75">
+      <c r="A132" s="59">
         <v>1</v>
       </c>
-      <c r="B132" s="75" t="s">
+      <c r="B132" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="21">
+      <c r="C132" s="17">
         <v>0.1</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="D132" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E132" s="78" t="s">
         <v>160</v>
       </c>
       <c r="F132" s="78"/>
-      <c r="G132" s="42">
+      <c r="G132" s="35">
         <v>9.98E-2</v>
       </c>
-      <c r="H132" s="23">
+      <c r="H132" s="49">
         <v>0.1002</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="75"/>
-      <c r="B133" s="75"/>
-      <c r="C133" s="21">
+      <c r="A133" s="59"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="17">
         <v>0.5</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D133" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="78" t="s">
         <v>161</v>
       </c>
       <c r="F133" s="78"/>
-      <c r="G133" s="42">
+      <c r="G133" s="35">
         <v>0.49940000000000001</v>
       </c>
-      <c r="H133" s="23">
+      <c r="H133" s="49">
         <v>0.50060000000000004</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="75"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="21">
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="17">
         <v>1</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="D134" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E134" s="78" t="s">
         <v>162</v>
       </c>
       <c r="F134" s="78"/>
-      <c r="G134" s="42">
+      <c r="G134" s="35">
         <v>0.99890000000000001</v>
       </c>
-      <c r="H134" s="23">
+      <c r="H134" s="49">
         <v>1.0011000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="75">
+      <c r="A135" s="59">
         <v>3</v>
       </c>
-      <c r="B135" s="75" t="s">
+      <c r="B135" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C135" s="21">
+      <c r="C135" s="17">
         <v>0.3</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E135" s="78" t="s">
         <v>163</v>
       </c>
       <c r="F135" s="78"/>
-      <c r="G135" s="42">
+      <c r="G135" s="35">
         <v>0.29903999999999997</v>
       </c>
-      <c r="H135" s="23">
+      <c r="H135" s="49">
         <v>0.30096000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="75"/>
-      <c r="B136" s="75"/>
-      <c r="C136" s="21">
+      <c r="A136" s="59"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="17">
         <v>1</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D136" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E136" s="78" t="s">
         <v>164</v>
       </c>
       <c r="F136" s="78"/>
-      <c r="G136" s="42">
+      <c r="G136" s="35">
         <v>0.99819999999999998</v>
       </c>
-      <c r="H136" s="23">
+      <c r="H136" s="49">
         <v>1.0018</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="75"/>
-      <c r="B137" s="75"/>
-      <c r="C137" s="21">
+      <c r="A137" s="59"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="17">
         <v>2.5</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D137" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E137" s="78" t="s">
         <v>165</v>
       </c>
       <c r="F137" s="78"/>
-      <c r="G137" s="42">
+      <c r="G137" s="35">
         <v>2.4964</v>
       </c>
-      <c r="H137" s="23">
+      <c r="H137" s="49">
         <v>2.5036</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="29"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="76" t="s">
+      <c r="A140" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="76"/>
-      <c r="C140" s="76" t="s">
+      <c r="B140" s="57"/>
+      <c r="C140" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D140" s="76"/>
-      <c r="E140" s="76" t="s">
+      <c r="D140" s="57"/>
+      <c r="E140" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F140" s="76" t="s">
+      <c r="F140" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G140" s="79" t="s">
+      <c r="G140" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H140" s="79"/>
+      <c r="H140" s="56"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="76"/>
-      <c r="B141" s="76"/>
-      <c r="C141" s="76"/>
-      <c r="D141" s="76"/>
-      <c r="E141" s="76"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="35" t="s">
+      <c r="A141" s="57"/>
+      <c r="B141" s="57"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H141" s="35" t="s">
+      <c r="H141" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="76">
+      <c r="A142" s="57">
         <v>1</v>
       </c>
-      <c r="B142" s="75" t="s">
+      <c r="B142" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="75">
+      <c r="C142" s="59">
         <v>0.1</v>
       </c>
-      <c r="D142" s="75" t="s">
+      <c r="D142" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F142" s="59" t="s">
+      <c r="F142" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="G142" s="42">
+      <c r="G142" s="35">
         <v>9.9299999999999999E-2</v>
       </c>
-      <c r="H142" s="23">
+      <c r="H142" s="49">
         <v>0.1007</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="76"/>
-      <c r="B143" s="75"/>
-      <c r="C143" s="75"/>
-      <c r="D143" s="75"/>
-      <c r="E143" s="43" t="s">
+      <c r="A143" s="57"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F143" s="59" t="s">
+      <c r="F143" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G143" s="79">
+      <c r="G143" s="56">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="H143" s="79">
+      <c r="H143" s="56">
         <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="76"/>
-      <c r="B144" s="75"/>
-      <c r="C144" s="75"/>
-      <c r="D144" s="75"/>
-      <c r="E144" s="43" t="s">
+      <c r="A144" s="57"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="59"/>
+      <c r="E144" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F144" s="59" t="s">
+      <c r="F144" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="G144" s="79"/>
-      <c r="H144" s="79"/>
+      <c r="G144" s="56"/>
+      <c r="H144" s="56"/>
     </row>
     <row r="145" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="76"/>
-      <c r="B145" s="75"/>
-      <c r="C145" s="75">
+      <c r="A145" s="57"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59">
         <v>0.5</v>
       </c>
-      <c r="D145" s="75" t="s">
+      <c r="D145" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="23" t="s">
+      <c r="E145" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F145" s="59" t="s">
+      <c r="F145" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="G145" s="23">
+      <c r="G145" s="49">
         <v>0.49809999999999999</v>
       </c>
-      <c r="H145" s="23">
+      <c r="H145" s="49">
         <v>0.50149999999999995</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="76"/>
-      <c r="B146" s="75"/>
-      <c r="C146" s="75"/>
-      <c r="D146" s="75"/>
-      <c r="E146" s="43" t="s">
+      <c r="A146" s="57"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F146" s="59" t="s">
+      <c r="F146" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="G146" s="79">
+      <c r="G146" s="56">
         <v>0.49909999999999999</v>
       </c>
-      <c r="H146" s="79">
+      <c r="H146" s="56">
         <v>0.50090000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="76"/>
-      <c r="B147" s="75"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="75"/>
-      <c r="E147" s="43" t="s">
+      <c r="A147" s="57"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F147" s="59" t="s">
+      <c r="F147" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="G147" s="79"/>
-      <c r="H147" s="79"/>
+      <c r="G147" s="56"/>
+      <c r="H147" s="56"/>
     </row>
     <row r="148" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="76"/>
-      <c r="B148" s="75"/>
-      <c r="C148" s="77">
+      <c r="A148" s="57"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="63">
         <v>1</v>
       </c>
-      <c r="D148" s="75" t="s">
+      <c r="D148" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F148" s="59" t="s">
+      <c r="F148" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="G148" s="23">
+      <c r="G148" s="49">
         <v>0.99660000000000004</v>
       </c>
-      <c r="H148" s="23">
+      <c r="H148" s="49">
         <v>1.0034000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="76"/>
-      <c r="B149" s="75"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="75"/>
-      <c r="E149" s="43" t="s">
+      <c r="A149" s="57"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F149" s="59" t="s">
+      <c r="F149" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="G149" s="79">
+      <c r="G149" s="56">
         <v>0.99860000000000004</v>
       </c>
-      <c r="H149" s="79">
+      <c r="H149" s="56">
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="76"/>
-      <c r="B150" s="75"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="75"/>
-      <c r="E150" s="43" t="s">
+      <c r="A150" s="57"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="63"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F150" s="59" t="s">
+      <c r="F150" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="G150" s="79"/>
-      <c r="H150" s="79"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
     </row>
     <row r="151" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="76">
+      <c r="A151" s="57">
         <v>3</v>
       </c>
-      <c r="B151" s="75" t="s">
+      <c r="B151" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="77">
+      <c r="C151" s="63">
         <v>0.3</v>
       </c>
-      <c r="D151" s="75" t="s">
+      <c r="D151" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="23" t="s">
+      <c r="E151" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F151" s="59" t="s">
+      <c r="F151" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="G151" s="23">
+      <c r="G151" s="49">
         <v>0.29715000000000003</v>
       </c>
-      <c r="H151" s="23">
+      <c r="H151" s="49">
         <v>0.30285000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="76"/>
-      <c r="B152" s="75"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="75"/>
-      <c r="E152" s="43" t="s">
+      <c r="A152" s="57"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F152" s="59" t="s">
+      <c r="F152" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="G152" s="79">
+      <c r="G152" s="56">
         <v>0.29775000000000001</v>
       </c>
-      <c r="H152" s="79">
+      <c r="H152" s="56">
         <v>0.30225000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="76"/>
-      <c r="B153" s="75"/>
-      <c r="C153" s="77"/>
-      <c r="D153" s="75"/>
-      <c r="E153" s="43" t="s">
+      <c r="A153" s="57"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="63"/>
+      <c r="D153" s="59"/>
+      <c r="E153" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F153" s="59" t="s">
+      <c r="F153" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="G153" s="79"/>
-      <c r="H153" s="79"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="56"/>
     </row>
     <row r="154" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="76"/>
-      <c r="B154" s="75"/>
-      <c r="C154" s="77">
+      <c r="A154" s="57"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="63">
         <v>1</v>
       </c>
-      <c r="D154" s="75" t="s">
+      <c r="D154" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E154" s="23" t="s">
+      <c r="E154" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F154" s="59" t="s">
+      <c r="F154" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="G154" s="23">
+      <c r="G154" s="49">
         <v>0.99470000000000003</v>
       </c>
-      <c r="H154" s="23">
+      <c r="H154" s="49">
         <v>1.0053000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="76"/>
-      <c r="B155" s="75"/>
-      <c r="C155" s="77"/>
-      <c r="D155" s="75"/>
-      <c r="E155" s="43" t="s">
+      <c r="A155" s="57"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="63"/>
+      <c r="D155" s="59"/>
+      <c r="E155" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F155" s="59" t="s">
+      <c r="F155" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="G155" s="79">
+      <c r="G155" s="56">
         <v>0.99790000000000001</v>
       </c>
-      <c r="H155" s="79">
+      <c r="H155" s="56">
         <v>1.0021</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="76"/>
-      <c r="B156" s="75"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="75"/>
-      <c r="E156" s="43" t="s">
+      <c r="A156" s="57"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="63"/>
+      <c r="D156" s="59"/>
+      <c r="E156" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F156" s="59" t="s">
+      <c r="F156" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="G156" s="79"/>
-      <c r="H156" s="79"/>
+      <c r="G156" s="56"/>
+      <c r="H156" s="56"/>
     </row>
     <row r="157" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="76"/>
-      <c r="B157" s="75"/>
-      <c r="C157" s="77">
+      <c r="A157" s="57"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="63">
         <v>2.5</v>
       </c>
-      <c r="D157" s="75" t="s">
+      <c r="D157" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="59" t="s">
+      <c r="F157" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="G157" s="23">
+      <c r="G157" s="49">
         <v>2.4894500000000002</v>
       </c>
-      <c r="H157" s="23">
+      <c r="H157" s="49">
         <v>2.5105499999999998</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="76"/>
-      <c r="B158" s="75"/>
-      <c r="C158" s="77"/>
-      <c r="D158" s="75"/>
-      <c r="E158" s="43" t="s">
+      <c r="A158" s="57"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="59"/>
+      <c r="E158" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F158" s="59" t="s">
+      <c r="F158" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="G158" s="79">
+      <c r="G158" s="56">
         <v>2.4944500000000001</v>
       </c>
-      <c r="H158" s="79">
+      <c r="H158" s="56">
         <v>2.5055499999999999</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="76"/>
-      <c r="B159" s="75"/>
-      <c r="C159" s="77"/>
-      <c r="D159" s="75"/>
-      <c r="E159" s="43" t="s">
+      <c r="A159" s="57"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="63"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F159" s="59" t="s">
+      <c r="F159" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="G159" s="79"/>
-      <c r="H159" s="79"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="56"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="27"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="31"/>
-      <c r="H160" s="29"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="23"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G162" s="24"/>
-      <c r="H162" s="24"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="76" t="s">
+      <c r="A163" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="76"/>
-      <c r="C163" s="76" t="s">
+      <c r="B163" s="57"/>
+      <c r="C163" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D163" s="76"/>
-      <c r="E163" s="76" t="s">
+      <c r="D163" s="57"/>
+      <c r="E163" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="76"/>
-      <c r="G163" s="79" t="s">
+      <c r="F163" s="57"/>
+      <c r="G163" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H163" s="79"/>
+      <c r="H163" s="56"/>
     </row>
     <row r="164" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="76"/>
-      <c r="B164" s="76"/>
-      <c r="C164" s="76"/>
-      <c r="D164" s="76"/>
-      <c r="E164" s="76"/>
-      <c r="F164" s="76"/>
-      <c r="G164" s="35" t="s">
+      <c r="A164" s="57"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="57"/>
+      <c r="D164" s="57"/>
+      <c r="E164" s="57"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H164" s="35" t="s">
+      <c r="H164" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="76">
+      <c r="A165" s="57">
         <v>100</v>
       </c>
-      <c r="B165" s="75" t="s">
+      <c r="B165" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="21">
+      <c r="C165" s="17">
         <v>10</v>
       </c>
-      <c r="D165" s="22" t="s">
+      <c r="D165" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="78" t="s">
         <v>207</v>
       </c>
       <c r="F165" s="78"/>
-      <c r="G165" s="42">
+      <c r="G165" s="35">
         <v>9.9949999999999992</v>
       </c>
-      <c r="H165" s="23">
+      <c r="H165" s="49">
         <v>10.005000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="76"/>
-      <c r="B166" s="75"/>
-      <c r="C166" s="21">
+      <c r="A166" s="57"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="17">
         <v>50</v>
       </c>
-      <c r="D166" s="22" t="s">
+      <c r="D166" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="78" t="s">
         <v>208</v>
       </c>
       <c r="F166" s="78"/>
-      <c r="G166" s="42">
+      <c r="G166" s="35">
         <v>49.991</v>
       </c>
-      <c r="H166" s="23">
+      <c r="H166" s="49">
         <v>50.009</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="76"/>
-      <c r="B167" s="75"/>
-      <c r="C167" s="21">
+      <c r="A167" s="57"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="17">
         <v>100</v>
       </c>
-      <c r="D167" s="22" t="s">
+      <c r="D167" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="78" t="s">
         <v>209</v>
       </c>
       <c r="F167" s="78"/>
-      <c r="G167" s="42">
+      <c r="G167" s="35">
         <v>99.986000000000004</v>
       </c>
-      <c r="H167" s="23">
+      <c r="H167" s="49">
         <v>100.014</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="76">
+      <c r="A168" s="57">
         <v>1</v>
       </c>
-      <c r="B168" s="75" t="s">
+      <c r="B168" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="44">
+      <c r="C168" s="36">
         <v>0.1</v>
       </c>
-      <c r="D168" s="56" t="s">
+      <c r="D168" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E168" s="78" t="s">
         <v>210</v>
       </c>
       <c r="F168" s="78"/>
-      <c r="G168" s="42">
+      <c r="G168" s="35">
         <v>9.9979999999999999E-2</v>
       </c>
-      <c r="H168" s="57">
+      <c r="H168" s="49">
         <v>0.10002</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="76"/>
-      <c r="B169" s="75"/>
-      <c r="C169" s="21">
+      <c r="A169" s="57"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="17">
         <v>0.5</v>
       </c>
-      <c r="D169" s="56" t="s">
+      <c r="D169" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E169" s="78" t="s">
         <v>211</v>
       </c>
       <c r="F169" s="78"/>
-      <c r="G169" s="42">
+      <c r="G169" s="35">
         <v>0.49994</v>
       </c>
-      <c r="H169" s="57">
+      <c r="H169" s="49">
         <v>0.50005999999999995</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="76"/>
-      <c r="B170" s="75"/>
-      <c r="C170" s="21">
+      <c r="A170" s="57"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="17">
         <v>1</v>
       </c>
-      <c r="D170" s="56" t="s">
+      <c r="D170" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E170" s="78" t="s">
         <v>212</v>
       </c>
       <c r="F170" s="78"/>
-      <c r="G170" s="42">
+      <c r="G170" s="35">
         <v>0.99988999999999995</v>
       </c>
-      <c r="H170" s="57">
+      <c r="H170" s="49">
         <v>1.0001100000000001</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="61" t="s">
+      <c r="A171" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="60"/>
-      <c r="F171" s="60"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="29"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="80"/>
+      <c r="F171" s="80"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="23"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="76" t="s">
+      <c r="A172" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B172" s="76"/>
-      <c r="C172" s="76" t="s">
+      <c r="B172" s="57"/>
+      <c r="C172" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D172" s="76"/>
-      <c r="E172" s="76" t="s">
+      <c r="D172" s="57"/>
+      <c r="E172" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F172" s="76"/>
-      <c r="G172" s="79" t="s">
+      <c r="F172" s="57"/>
+      <c r="G172" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H172" s="79"/>
+      <c r="H172" s="56"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="76"/>
-      <c r="B173" s="76"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="76"/>
-      <c r="E173" s="76"/>
-      <c r="F173" s="76"/>
-      <c r="G173" s="58" t="s">
+      <c r="A173" s="57"/>
+      <c r="B173" s="57"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="57"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="58" t="s">
+      <c r="H173" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="75">
+      <c r="A174" s="59">
         <v>10</v>
       </c>
-      <c r="B174" s="75" t="s">
+      <c r="B174" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="44">
+      <c r="C174" s="36">
         <v>1</v>
       </c>
-      <c r="D174" s="56" t="s">
+      <c r="D174" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E174" s="78" t="s">
         <v>187</v>
       </c>
       <c r="F174" s="78"/>
-      <c r="G174" s="42">
+      <c r="G174" s="35">
         <v>0.99980000000000002</v>
       </c>
-      <c r="H174" s="57">
+      <c r="H174" s="49">
         <v>1.0002</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A175" s="75"/>
-      <c r="B175" s="75"/>
-      <c r="C175" s="21">
+      <c r="A175" s="59"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="17">
         <v>5</v>
       </c>
-      <c r="D175" s="56" t="s">
+      <c r="D175" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E175" s="78" t="s">
         <v>188</v>
       </c>
       <c r="F175" s="78"/>
-      <c r="G175" s="42">
+      <c r="G175" s="35">
         <v>4.9993999999999996</v>
       </c>
-      <c r="H175" s="57">
+      <c r="H175" s="49">
         <v>5.0006000000000004</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="75"/>
-      <c r="B176" s="75"/>
-      <c r="C176" s="21">
+      <c r="A176" s="59"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="17">
         <v>10</v>
       </c>
-      <c r="D176" s="56" t="s">
+      <c r="D176" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E176" s="78" t="s">
         <v>189</v>
       </c>
       <c r="F176" s="78"/>
-      <c r="G176" s="42">
+      <c r="G176" s="35">
         <v>9.9989000000000008</v>
       </c>
-      <c r="H176" s="57">
+      <c r="H176" s="49">
         <v>10.001099999999999</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="75">
+      <c r="A177" s="59">
         <v>100</v>
       </c>
-      <c r="B177" s="75" t="s">
+      <c r="B177" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C177" s="21">
+      <c r="C177" s="17">
         <v>10</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E177" s="78" t="s">
         <v>190</v>
       </c>
       <c r="F177" s="78"/>
-      <c r="G177" s="42">
+      <c r="G177" s="35">
         <v>9.9979999999999993</v>
       </c>
-      <c r="H177" s="23">
+      <c r="H177" s="49">
         <v>10.002000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="75"/>
-      <c r="B178" s="75"/>
-      <c r="C178" s="21">
+      <c r="A178" s="59"/>
+      <c r="B178" s="59"/>
+      <c r="C178" s="17">
         <v>50</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D178" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E178" s="78" t="s">
         <v>191</v>
       </c>
       <c r="F178" s="78"/>
-      <c r="G178" s="42">
+      <c r="G178" s="35">
         <v>49.994</v>
       </c>
-      <c r="H178" s="23">
+      <c r="H178" s="49">
         <v>50.006</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="75"/>
-      <c r="B179" s="75"/>
-      <c r="C179" s="21">
+      <c r="A179" s="59"/>
+      <c r="B179" s="59"/>
+      <c r="C179" s="17">
         <v>100</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E179" s="78" t="s">
         <v>192</v>
       </c>
       <c r="F179" s="78"/>
-      <c r="G179" s="42">
+      <c r="G179" s="35">
         <v>99.989000000000004</v>
       </c>
-      <c r="H179" s="23">
+      <c r="H179" s="49">
         <v>100.011</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="76">
+      <c r="A180" s="57">
         <v>1</v>
       </c>
-      <c r="B180" s="75" t="s">
+      <c r="B180" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C180" s="21">
+      <c r="C180" s="17">
         <v>0.1</v>
       </c>
-      <c r="D180" s="22" t="s">
+      <c r="D180" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E180" s="78" t="s">
         <v>193</v>
       </c>
       <c r="F180" s="78"/>
-      <c r="G180" s="42">
+      <c r="G180" s="35">
         <v>9.9979999999999999E-2</v>
       </c>
-      <c r="H180" s="23">
+      <c r="H180" s="49">
         <v>0.10002</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="75"/>
-      <c r="B181" s="75"/>
-      <c r="C181" s="21">
+      <c r="A181" s="59"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="17">
         <v>0.5</v>
       </c>
-      <c r="D181" s="22" t="s">
+      <c r="D181" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E181" s="78" t="s">
         <v>194</v>
       </c>
       <c r="F181" s="78"/>
-      <c r="G181" s="42">
+      <c r="G181" s="35">
         <v>0.49994</v>
       </c>
-      <c r="H181" s="23">
+      <c r="H181" s="49">
         <v>0.50005999999999995</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="67"/>
-      <c r="B182" s="67"/>
-      <c r="C182" s="44">
+      <c r="A182" s="58"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="36">
         <v>1</v>
       </c>
-      <c r="D182" s="45" t="s">
+      <c r="D182" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E182" s="78" t="s">
         <v>195</v>
       </c>
       <c r="F182" s="78"/>
-      <c r="G182" s="42">
+      <c r="G182" s="35">
         <v>0.99988999999999995</v>
       </c>
-      <c r="H182" s="23">
+      <c r="H182" s="49">
         <v>1.0001100000000001</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="75">
+      <c r="A183" s="59">
         <v>10</v>
       </c>
-      <c r="B183" s="75" t="s">
+      <c r="B183" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C183" s="44">
+      <c r="C183" s="36">
         <v>1</v>
       </c>
-      <c r="D183" s="45" t="s">
+      <c r="D183" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E183" s="78" t="s">
         <v>196</v>
       </c>
       <c r="F183" s="78"/>
-      <c r="G183" s="42">
+      <c r="G183" s="35">
         <v>0.99950000000000006</v>
       </c>
-      <c r="H183" s="23">
+      <c r="H183" s="49">
         <v>1.0004999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="75"/>
-      <c r="B184" s="75"/>
-      <c r="C184" s="44">
+      <c r="A184" s="59"/>
+      <c r="B184" s="59"/>
+      <c r="C184" s="36">
         <v>5</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="D184" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E184" s="78" t="s">
         <v>197</v>
       </c>
       <c r="F184" s="78"/>
-      <c r="G184" s="42">
+      <c r="G184" s="35">
         <v>4.9978999999999996</v>
       </c>
-      <c r="H184" s="23">
+      <c r="H184" s="49">
         <v>5.0021000000000004</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A185" s="75"/>
-      <c r="B185" s="75"/>
-      <c r="C185" s="44">
+      <c r="A185" s="59"/>
+      <c r="B185" s="59"/>
+      <c r="C185" s="36">
         <v>10</v>
       </c>
-      <c r="D185" s="45" t="s">
+      <c r="D185" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E185" s="78" t="s">
         <v>198</v>
       </c>
       <c r="F185" s="78"/>
-      <c r="G185" s="42">
+      <c r="G185" s="35">
         <v>9.9959000000000007</v>
       </c>
-      <c r="H185" s="23">
+      <c r="H185" s="49">
         <v>10.004099999999999</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A186" s="75">
+      <c r="A186" s="59">
         <v>100</v>
       </c>
-      <c r="B186" s="75" t="s">
+      <c r="B186" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C186" s="44">
+      <c r="C186" s="36">
         <v>10</v>
       </c>
-      <c r="D186" s="45" t="s">
+      <c r="D186" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E186" s="78" t="s">
         <v>199</v>
       </c>
       <c r="F186" s="78"/>
-      <c r="G186" s="42">
+      <c r="G186" s="35">
         <v>9.91</v>
       </c>
-      <c r="H186" s="23">
+      <c r="H186" s="49">
         <v>10.09</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A187" s="75"/>
-      <c r="B187" s="75"/>
-      <c r="C187" s="44">
+      <c r="A187" s="59"/>
+      <c r="B187" s="59"/>
+      <c r="C187" s="36">
         <v>50</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="D187" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E187" s="78" t="s">
         <v>200</v>
       </c>
       <c r="F187" s="78"/>
-      <c r="G187" s="42">
+      <c r="G187" s="35">
         <v>49.59</v>
       </c>
-      <c r="H187" s="23">
+      <c r="H187" s="49">
         <v>50.41</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="75"/>
-      <c r="B188" s="75"/>
-      <c r="C188" s="44">
+      <c r="A188" s="59"/>
+      <c r="B188" s="59"/>
+      <c r="C188" s="36">
         <v>100</v>
       </c>
-      <c r="D188" s="45" t="s">
+      <c r="D188" s="46" t="s">
         <v>13</v>
       </c>
       <c r="E188" s="78" t="s">
         <v>201</v>
       </c>
       <c r="F188" s="78"/>
-      <c r="G188" s="42">
+      <c r="G188" s="35">
         <v>99.19</v>
       </c>
-      <c r="H188" s="23">
+      <c r="H188" s="49">
         <v>100.81</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="30"/>
-      <c r="F189" s="30"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="30"/>
+      <c r="A189" s="20"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="24"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B190" s="26"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="30"/>
-      <c r="F190" s="30"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="30"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="24"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="85" t="s">
+      <c r="A191" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B191" s="85"/>
-      <c r="C191" s="76" t="s">
+      <c r="B191" s="60"/>
+      <c r="C191" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D191" s="76"/>
-      <c r="E191" s="86" t="s">
+      <c r="D191" s="57"/>
+      <c r="E191" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F191" s="86"/>
-      <c r="G191" s="13"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="10"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="85"/>
-      <c r="B192" s="85"/>
-      <c r="C192" s="76"/>
-      <c r="D192" s="76"/>
-      <c r="E192" s="52" t="s">
+      <c r="A192" s="60"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F192" s="52" t="s">
+      <c r="F192" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G192" s="13"/>
+      <c r="G192" s="10"/>
     </row>
     <row r="193" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="50">
+      <c r="A193" s="45">
         <v>10</v>
       </c>
-      <c r="B193" s="50" t="s">
+      <c r="B193" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="C193" s="80" t="s">
+      <c r="C193" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="D193" s="80"/>
-      <c r="E193" s="51">
+      <c r="D193" s="76"/>
+      <c r="E193" s="47">
         <v>9.9949999999999992</v>
       </c>
-      <c r="F193" s="51">
+      <c r="F193" s="47">
         <v>10.005000000000001</v>
       </c>
-      <c r="G193" s="13"/>
+      <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="50">
+      <c r="A194" s="45">
         <v>50</v>
       </c>
-      <c r="B194" s="87" t="s">
+      <c r="B194" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="C194" s="80" t="s">
+      <c r="C194" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="D194" s="80"/>
-      <c r="E194" s="51">
+      <c r="D194" s="76"/>
+      <c r="E194" s="47">
         <v>49.984999999999999</v>
       </c>
-      <c r="F194" s="51">
+      <c r="F194" s="47">
         <v>50.015000000000001</v>
       </c>
-      <c r="G194" s="13"/>
+      <c r="G194" s="10"/>
     </row>
     <row r="195" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="50">
+      <c r="A195" s="45">
         <v>300</v>
       </c>
-      <c r="B195" s="88"/>
-      <c r="C195" s="80" t="s">
+      <c r="B195" s="53"/>
+      <c r="C195" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="D195" s="80"/>
-      <c r="E195" s="51">
+      <c r="D195" s="76"/>
+      <c r="E195" s="47">
         <v>299.97000000000003</v>
       </c>
-      <c r="F195" s="51">
+      <c r="F195" s="47">
         <v>300.02999999999997</v>
       </c>
-      <c r="G195" s="13"/>
+      <c r="G195" s="10"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F196" s="30"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="30"/>
-    </row>
-    <row r="197" spans="1:8" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="83" t="s">
+      <c r="F196" s="24"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="24"/>
+    </row>
+    <row r="197" spans="1:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B197" s="83"/>
-      <c r="C197" s="63" t="s">
+      <c r="B197" s="54"/>
+      <c r="C197" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="64"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="44"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="83" t="s">
+    <row r="198" spans="1:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B198" s="83"/>
-      <c r="C198" s="46"/>
-      <c r="D198" s="47" t="s">
+      <c r="B198" s="54"/>
+      <c r="C198" s="37"/>
+      <c r="D198" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E198" s="89" t="s">
+      <c r="E198" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F198" s="90"/>
-      <c r="G198" s="19" t="s">
+      <c r="F198" s="55"/>
+      <c r="G198" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H198" s="48"/>
-    </row>
-    <row r="199" spans="1:8" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="83" t="s">
+      <c r="H198" s="39"/>
+    </row>
+    <row r="199" spans="1:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B199" s="83"/>
-      <c r="C199" s="84" t="s">
+      <c r="B199" s="54"/>
+      <c r="C199" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D199" s="84"/>
+      <c r="D199" s="83"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -5085,6 +5039,207 @@
     </row>
   </sheetData>
   <mergeCells count="225">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="B71:B85"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="D71:D75"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="B98:B109"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="A86:A97"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="A124:B125"/>
+    <mergeCell ref="C124:D125"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="A163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="E163:F164"/>
+    <mergeCell ref="A172:B173"/>
+    <mergeCell ref="C172:D173"/>
+    <mergeCell ref="E172:F173"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="A140:B141"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A142:A150"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B151:B159"/>
+    <mergeCell ref="C154:C156"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B142:B150"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="B57:B70"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A110:A121"/>
+    <mergeCell ref="B110:B121"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E124:F125"/>
+    <mergeCell ref="A71:A85"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="A191:B192"/>
+    <mergeCell ref="C191:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="E191:F191"/>
     <mergeCell ref="B194:B195"/>
     <mergeCell ref="A198:B198"/>
     <mergeCell ref="E198:F198"/>
@@ -5109,207 +5264,6 @@
     <mergeCell ref="G155:G156"/>
     <mergeCell ref="H155:H156"/>
     <mergeCell ref="A151:A159"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="A191:B192"/>
-    <mergeCell ref="C191:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="B57:B70"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A110:A121"/>
-    <mergeCell ref="B110:B121"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E124:F125"/>
-    <mergeCell ref="A71:A85"/>
-    <mergeCell ref="B151:B159"/>
-    <mergeCell ref="C154:C156"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B142:B150"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A142:A150"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="A124:B125"/>
-    <mergeCell ref="C124:D125"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="A163:B164"/>
-    <mergeCell ref="C163:D164"/>
-    <mergeCell ref="E163:F164"/>
-    <mergeCell ref="A172:B173"/>
-    <mergeCell ref="C172:D173"/>
-    <mergeCell ref="E172:F173"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="A140:B141"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="B71:B85"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="A98:A109"/>
-    <mergeCell ref="B98:B109"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="A86:A97"/>
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.65625" header="0.39370078740157483" footer="0.39370078740157483"/>
